--- a/teaching/traditional_assets/database/data/turkey/turkey_advertising.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_advertising.xlsx
@@ -644,10 +644,10 @@
         <v>-0.01655842593928898</v>
       </c>
       <c r="X2">
-        <v>0.1142367191254087</v>
+        <v>0.112674118410876</v>
       </c>
       <c r="Y2">
-        <v>-0.1307951450646977</v>
+        <v>-0.129232544350165</v>
       </c>
       <c r="Z2">
         <v>2.490503323836657</v>
@@ -656,10 +656,10 @@
         <v>-0.06124024216241893</v>
       </c>
       <c r="AB2">
-        <v>0.1116345974723099</v>
+        <v>0.1098966822508274</v>
       </c>
       <c r="AC2">
-        <v>-0.1728748396347288</v>
+        <v>-0.1711369244132463</v>
       </c>
       <c r="AD2">
         <v>3.096</v>
@@ -772,10 +772,10 @@
         <v>-0.05710059171597633</v>
       </c>
       <c r="X3">
-        <v>0.1180278623417611</v>
+        <v>0.1166554181864254</v>
       </c>
       <c r="Y3">
-        <v>-0.1751284540577374</v>
+        <v>-0.1737560099024017</v>
       </c>
       <c r="Z3">
         <v>3.038410089814638</v>
@@ -784,10 +784,10 @@
         <v>0.08981463787502389</v>
       </c>
       <c r="AB3">
-        <v>0.1128682870274409</v>
+        <v>0.1111483453019371</v>
       </c>
       <c r="AC3">
-        <v>-0.02305364915241696</v>
+        <v>-0.02133370742691316</v>
       </c>
       <c r="AD3">
         <v>3.06</v>
@@ -897,10 +897,10 @@
         <v>0.02398373983739837</v>
       </c>
       <c r="X4">
-        <v>0.1104455759090563</v>
+        <v>0.1086928186353267</v>
       </c>
       <c r="Y4">
-        <v>-0.08646183607165794</v>
+        <v>-0.08470907879792836</v>
       </c>
       <c r="Z4">
         <v>1.591977436540269</v>
@@ -909,10 +909,10 @@
         <v>-0.2122951221998617</v>
       </c>
       <c r="AB4">
-        <v>0.1104009079171789</v>
+        <v>0.1086450191997178</v>
       </c>
       <c r="AC4">
-        <v>-0.3226960301170406</v>
+        <v>-0.3209401413995795</v>
       </c>
       <c r="AD4">
         <v>0.036</v>
@@ -1209,37 +1209,37 @@
         <v>0.09398034398034399</v>
       </c>
       <c r="F2">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
         <v>29.5</v>
       </c>
       <c r="H2">
-        <v>30.3474060832541</v>
+        <v>29.4389005486083</v>
       </c>
       <c r="I2">
         <v>31.668</v>
       </c>
       <c r="J2">
-        <v>33.0370060832541</v>
+        <v>33.1053005486083</v>
       </c>
       <c r="K2">
         <v>3.06</v>
       </c>
       <c r="L2">
-        <v>3.5816</v>
+        <v>4.5584</v>
       </c>
       <c r="M2">
-        <v>0.112868287027441</v>
+        <v>0.111148345301937</v>
       </c>
       <c r="N2">
-        <v>0.108845916625694</v>
+        <v>0.106726495019612</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.118027862341761</v>
+        <v>0.116655418186425</v>
       </c>
       <c r="T2">
-        <v>0.119493411938982</v>
+        <v>0.121230901185595</v>
       </c>
       <c r="U2">
         <v>1.06824080097173</v>
       </c>
       <c r="V2">
-        <v>1.08355521565023</v>
+        <v>1.11376917491349</v>
       </c>
       <c r="W2">
-        <v>4.509493731611819</v>
+        <v>4.562228013555446</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>29.5</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1103758727461505</v>
+        <v>0.1086196192938629</v>
       </c>
       <c r="C2">
-        <v>33.39456565790049</v>
+        <v>33.36628274446718</v>
       </c>
       <c r="D2">
-        <v>32.50256565790049</v>
+        <v>32.47428274446718</v>
       </c>
       <c r="E2">
         <v>-3.06</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1103758727461505</v>
+        <v>0.1086196192938629</v>
       </c>
       <c r="T2">
         <v>0.9882805307734218</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1559,13 +1559,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.110186865826109</v>
+        <v>0.1084344761314164</v>
       </c>
       <c r="C3">
-        <v>33.13405108874598</v>
+        <v>33.10133158874536</v>
       </c>
       <c r="D3">
-        <v>32.56765108874598</v>
+        <v>32.53493158874536</v>
       </c>
       <c r="E3">
         <v>-2.7344</v>
@@ -1592,37 +1592,37 @@
         <v>0.47</v>
       </c>
       <c r="M3">
-        <v>0.007391120000000002</v>
+        <v>0.005274720000000001</v>
       </c>
       <c r="N3">
-        <v>0.4626088799999999</v>
+        <v>0.46472528</v>
       </c>
       <c r="O3">
-        <v>0.1017739536</v>
+        <v>0.1022395616</v>
       </c>
       <c r="P3">
-        <v>0.3608349263999999</v>
+        <v>0.3624857184</v>
       </c>
       <c r="Q3">
-        <v>0.6948349264</v>
+        <v>0.6964857184000001</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1111210159859686</v>
+        <v>0.1094021375064812</v>
       </c>
       <c r="T3">
         <v>0.9960669834401215</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>63.58982129907238</v>
+        <v>89.10425577092242</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1099978589060674</v>
+        <v>0.1082493329689699</v>
       </c>
       <c r="C4">
-        <v>32.87379770592766</v>
+        <v>32.83660739198306</v>
       </c>
       <c r="D4">
-        <v>32.63299770592766</v>
+        <v>32.59580739198306</v>
       </c>
       <c r="E4">
         <v>-2.4088</v>
@@ -1674,37 +1674,37 @@
         <v>0.47</v>
       </c>
       <c r="M4">
-        <v>0.01478224</v>
+        <v>0.01054944</v>
       </c>
       <c r="N4">
-        <v>0.45521776</v>
+        <v>0.45945056</v>
       </c>
       <c r="O4">
-        <v>0.1001479072</v>
+        <v>0.1010791232</v>
       </c>
       <c r="P4">
-        <v>0.3550698528</v>
+        <v>0.3583714367999999</v>
       </c>
       <c r="Q4">
-        <v>0.6890698528000001</v>
+        <v>0.6923714368</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1118813662306811</v>
+        <v>0.1102006254785407</v>
       </c>
       <c r="T4">
         <v>1.004012343304101</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>31.79491064953619</v>
+        <v>44.5521278854612</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1098088519860259</v>
+        <v>0.1080641898065234</v>
       </c>
       <c r="C5">
-        <v>32.61380708480868</v>
+        <v>32.5721114305508</v>
       </c>
       <c r="D5">
-        <v>32.69860708480868</v>
+        <v>32.65691143055079</v>
       </c>
       <c r="E5">
         <v>-2.0832</v>
@@ -1756,37 +1756,37 @@
         <v>0.47</v>
       </c>
       <c r="M5">
-        <v>0.02217336</v>
+        <v>0.01582416</v>
       </c>
       <c r="N5">
-        <v>0.4478266399999999</v>
+        <v>0.45417584</v>
       </c>
       <c r="O5">
-        <v>0.09852186079999999</v>
+        <v>0.0999186848</v>
       </c>
       <c r="P5">
-        <v>0.3493047792</v>
+        <v>0.3542571552</v>
       </c>
       <c r="Q5">
-        <v>0.6833047792</v>
+        <v>0.6882571552000001</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1126573938000267</v>
+        <v>0.1110155771201272</v>
       </c>
       <c r="T5">
         <v>1.012121525020946</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>21.19660709969079</v>
+        <v>29.70141859030748</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1805,13 +1805,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1096198450659844</v>
+        <v>0.1078790466440769</v>
       </c>
       <c r="C6">
-        <v>32.35408081344682</v>
+        <v>32.30784499040777</v>
       </c>
       <c r="D6">
-        <v>32.76448081344682</v>
+        <v>32.71824499040776</v>
       </c>
       <c r="E6">
         <v>-1.7576</v>
@@ -1838,37 +1838,37 @@
         <v>0.47</v>
       </c>
       <c r="M6">
-        <v>0.02956448000000001</v>
+        <v>0.02109888</v>
       </c>
       <c r="N6">
-        <v>0.44043552</v>
+        <v>0.44890112</v>
       </c>
       <c r="O6">
-        <v>0.09689581439999999</v>
+        <v>0.0987582464</v>
       </c>
       <c r="P6">
-        <v>0.3435397056</v>
+        <v>0.3501428736</v>
       </c>
       <c r="Q6">
-        <v>0.6775397056000001</v>
+        <v>0.6841428736</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1134495886104004</v>
+        <v>0.1118475069209135</v>
       </c>
       <c r="T6">
         <v>1.020399648023558</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>15.8974553247681</v>
+        <v>22.27606394273061</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1887,13 +1887,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1094932381459428</v>
+        <v>0.1076939034816304</v>
       </c>
       <c r="C7">
-        <v>32.0727551931634</v>
+        <v>32.04380936719209</v>
       </c>
       <c r="D7">
-        <v>32.8087551931634</v>
+        <v>32.77980936719209</v>
       </c>
       <c r="E7">
         <v>-1.432</v>
@@ -1920,45 +1920,45 @@
         <v>0.47</v>
       </c>
       <c r="M7">
-        <v>0.03956040000000001</v>
+        <v>0.0263736</v>
       </c>
       <c r="N7">
-        <v>0.4304396</v>
+        <v>0.4436264</v>
       </c>
       <c r="O7">
-        <v>0.094696712</v>
+        <v>0.09759780799999999</v>
       </c>
       <c r="P7">
-        <v>0.335742888</v>
+        <v>0.346028592</v>
       </c>
       <c r="Q7">
-        <v>0.669742888</v>
+        <v>0.680028592</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1142584612062556</v>
+        <v>0.1126969510332952</v>
       </c>
       <c r="T7">
         <v>1.02885204729991</v>
       </c>
       <c r="U7">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y7">
-        <v>11.88056743612299</v>
+        <v>17.82085115418448</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1094196712259013</v>
+        <v>0.1075087603191839</v>
       </c>
       <c r="C8">
-        <v>31.77293651709194</v>
+        <v>31.78000586631204</v>
       </c>
       <c r="D8">
-        <v>32.83453651709193</v>
+        <v>32.84160586631204</v>
       </c>
       <c r="E8">
         <v>-1.1064</v>
@@ -2002,45 +2002,45 @@
         <v>0.47</v>
       </c>
       <c r="M8">
-        <v>0.05177040000000001</v>
+        <v>0.03164832</v>
       </c>
       <c r="N8">
-        <v>0.4182296</v>
+        <v>0.43835168</v>
       </c>
       <c r="O8">
-        <v>0.092010512</v>
+        <v>0.09643736959999999</v>
       </c>
       <c r="P8">
-        <v>0.326219088</v>
+        <v>0.3419143104</v>
       </c>
       <c r="Q8">
-        <v>0.6602190880000001</v>
+        <v>0.6759143104000001</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1150845438573418</v>
+        <v>0.1135644684246638</v>
       </c>
       <c r="T8">
         <v>1.037484284858737</v>
       </c>
       <c r="U8">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y8">
-        <v>9.078546814395869</v>
+        <v>14.85070929515374</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2051,13 +2051,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1093203643058598</v>
+        <v>0.1074109771567374</v>
       </c>
       <c r="C9">
-        <v>31.4822026846556</v>
+        <v>31.48713773969149</v>
       </c>
       <c r="D9">
-        <v>32.8694026846556</v>
+        <v>32.87433773969149</v>
       </c>
       <c r="E9">
         <v>-0.7807999999999997</v>
@@ -2084,45 +2084,45 @@
         <v>0.47</v>
       </c>
       <c r="M9">
-        <v>0.06290592</v>
+        <v>0.04056976</v>
       </c>
       <c r="N9">
-        <v>0.40709408</v>
+        <v>0.42943024</v>
       </c>
       <c r="O9">
-        <v>0.08956069759999999</v>
+        <v>0.09447465279999999</v>
       </c>
       <c r="P9">
-        <v>0.3175333824</v>
+        <v>0.3349555872</v>
       </c>
       <c r="Q9">
-        <v>0.6515333824</v>
+        <v>0.6689555872</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.115928391726731</v>
+        <v>0.1144506421040188</v>
       </c>
       <c r="T9">
         <v>1.046302161934958</v>
       </c>
       <c r="U9">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y9">
-        <v>7.47147486277921</v>
+        <v>11.58498349509585</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1091695773858182</v>
+        <v>0.1073755939942909</v>
       </c>
       <c r="C10">
-        <v>31.20968502831819</v>
+        <v>31.17339795878567</v>
       </c>
       <c r="D10">
-        <v>32.92248502831819</v>
+        <v>32.88619795878567</v>
       </c>
       <c r="E10">
         <v>-0.4551999999999996</v>
@@ -2166,45 +2166,45 @@
         <v>0.47</v>
       </c>
       <c r="M10">
-        <v>0.07189248000000001</v>
+        <v>0.052096</v>
       </c>
       <c r="N10">
-        <v>0.3981075199999999</v>
+        <v>0.4179039999999999</v>
       </c>
       <c r="O10">
-        <v>0.08758365439999999</v>
+        <v>0.09193887999999999</v>
       </c>
       <c r="P10">
-        <v>0.3105238655999999</v>
+        <v>0.3259651199999999</v>
       </c>
       <c r="Q10">
-        <v>0.6445238656000001</v>
+        <v>0.6599651200000001</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1167905841150198</v>
+        <v>0.1153560804285771</v>
       </c>
       <c r="T10">
         <v>1.055311731991097</v>
       </c>
       <c r="U10">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y10">
-        <v>6.537540504931807</v>
+        <v>9.021805896805896</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1091240904657767</v>
+        <v>0.1072200908318444</v>
       </c>
       <c r="C11">
-        <v>30.90013171504803</v>
+        <v>30.90002327577619</v>
       </c>
       <c r="D11">
-        <v>32.93853171504802</v>
+        <v>32.93842327577618</v>
       </c>
       <c r="E11">
         <v>-0.1295999999999999</v>
@@ -2248,45 +2248,45 @@
         <v>0.47</v>
       </c>
       <c r="M11">
-        <v>0.08527464000000001</v>
+        <v>0.05860799999999999</v>
       </c>
       <c r="N11">
-        <v>0.38472536</v>
+        <v>0.411392</v>
       </c>
       <c r="O11">
-        <v>0.0846395792</v>
+        <v>0.09050624</v>
       </c>
       <c r="P11">
-        <v>0.3000857808</v>
+        <v>0.32088576</v>
       </c>
       <c r="Q11">
-        <v>0.6340857808</v>
+        <v>0.65488576</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1176717257865678</v>
+        <v>0.1162814184965324</v>
       </c>
       <c r="T11">
         <v>1.064519314575943</v>
       </c>
       <c r="U11">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y11">
-        <v>5.511603449747779</v>
+        <v>8.019383019383021</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1089850035457352</v>
+        <v>0.1071503876693979</v>
       </c>
       <c r="C12">
-        <v>30.62369540826706</v>
+        <v>30.5978867726821</v>
       </c>
       <c r="D12">
-        <v>32.98769540826706</v>
+        <v>32.9618867726821</v>
       </c>
       <c r="E12">
         <v>0.1960000000000002</v>
@@ -2330,45 +2330,45 @@
         <v>0.47</v>
       </c>
       <c r="M12">
-        <v>0.0947496</v>
+        <v>0.0687016</v>
       </c>
       <c r="N12">
-        <v>0.3752504</v>
+        <v>0.4012983999999999</v>
       </c>
       <c r="O12">
-        <v>0.082555088</v>
+        <v>0.08828564799999999</v>
       </c>
       <c r="P12">
-        <v>0.292695312</v>
+        <v>0.3130127519999999</v>
       </c>
       <c r="Q12">
-        <v>0.6266953120000001</v>
+        <v>0.647012752</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1185724483841502</v>
+        <v>0.1172273196326644</v>
       </c>
       <c r="T12">
         <v>1.073931510107118</v>
       </c>
       <c r="U12">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y12">
-        <v>4.960443104773002</v>
+        <v>6.841179826961817</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1088459166256937</v>
+        <v>0.1071321645069514</v>
       </c>
       <c r="C13">
-        <v>30.34740608325412</v>
+        <v>30.27842657159413</v>
       </c>
       <c r="D13">
-        <v>33.03700608325412</v>
+        <v>32.96802657159413</v>
       </c>
       <c r="E13">
         <v>0.5216000000000003</v>
@@ -2412,37 +2412,37 @@
         <v>0.47</v>
       </c>
       <c r="M13">
-        <v>0.10422456</v>
+        <v>0.08094416</v>
       </c>
       <c r="N13">
-        <v>0.36577544</v>
+        <v>0.38905584</v>
       </c>
       <c r="O13">
-        <v>0.08047059679999999</v>
+        <v>0.0855922848</v>
       </c>
       <c r="P13">
-        <v>0.2853048431999999</v>
+        <v>0.3034635552</v>
       </c>
       <c r="Q13">
-        <v>0.6193048432</v>
+        <v>0.6374635552000001</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1194934119389816</v>
+        <v>0.1181944769741027</v>
       </c>
       <c r="T13">
         <v>1.08355521565023</v>
       </c>
       <c r="U13">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>4.509493731611819</v>
+        <v>5.806472017252387</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2461,13 +2461,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1130217897056521</v>
+        <v>0.1069969413445049</v>
       </c>
       <c r="C14">
-        <v>28.60279965719299</v>
+        <v>29.99845789588413</v>
       </c>
       <c r="D14">
-        <v>31.61799965719299</v>
+        <v>33.01365789588412</v>
       </c>
       <c r="E14">
         <v>0.8472</v>
@@ -2494,45 +2494,45 @@
         <v>0.47</v>
       </c>
       <c r="M14">
-        <v>0.29382144</v>
+        <v>0.08830272</v>
       </c>
       <c r="N14">
-        <v>0.17617856</v>
+        <v>0.38169728</v>
       </c>
       <c r="O14">
-        <v>0.03875928319999999</v>
+        <v>0.0839734016</v>
       </c>
       <c r="P14">
-        <v>0.1374192768</v>
+        <v>0.2977238784</v>
       </c>
       <c r="Q14">
-        <v>0.4714192768000001</v>
+        <v>0.6317238784000001</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1204353064836956</v>
+        <v>0.1191836151642102</v>
       </c>
       <c r="T14">
         <v>1.093397641773868</v>
       </c>
       <c r="U14">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y14">
-        <v>1.599610974610975</v>
+        <v>5.322599349148021</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2543,13 +2543,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1175608308489532</v>
+        <v>0.1068617181820584</v>
       </c>
       <c r="C15">
-        <v>26.86687900517412</v>
+        <v>29.71861571265686</v>
       </c>
       <c r="D15">
-        <v>30.20767900517412</v>
+        <v>33.05941571265686</v>
       </c>
       <c r="E15">
         <v>1.1728</v>
@@ -2576,45 +2576,45 @@
         <v>0.47</v>
       </c>
       <c r="M15">
-        <v>0.4888884</v>
+        <v>0.09566128</v>
       </c>
       <c r="N15">
-        <v>-0.01888840000000003</v>
+        <v>0.37433872</v>
       </c>
       <c r="O15">
-        <v>-0.004155448000000006</v>
+        <v>0.08235451839999999</v>
       </c>
       <c r="P15">
-        <v>-0.01473295200000002</v>
+        <v>0.2919842015999999</v>
       </c>
       <c r="Q15">
-        <v>0.3192670480000001</v>
+        <v>0.6259842016</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1215189730168148</v>
+        <v>0.1201954921632856</v>
       </c>
       <c r="T15">
-        <v>1.104721529203455</v>
+        <v>1.103466330567014</v>
       </c>
       <c r="U15">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V15">
-        <v>0.2115002115002115</v>
+        <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.09107172557172556</v>
+        <v>0.017628</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y15">
-        <v>0.961364597728234</v>
+        <v>4.913168629982788</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2625,13 +2625,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1185578308489532</v>
+        <v>0.1067264950196119</v>
       </c>
       <c r="C16">
-        <v>26.24819130840842</v>
+        <v>29.4389005486083</v>
       </c>
       <c r="D16">
-        <v>29.91459130840842</v>
+        <v>33.1053005486083</v>
       </c>
       <c r="E16">
         <v>1.498400000000001</v>
@@ -2658,45 +2658,45 @@
         <v>0.47</v>
       </c>
       <c r="M16">
-        <v>0.5264952000000001</v>
+        <v>0.10301984</v>
       </c>
       <c r="N16">
-        <v>-0.05649520000000008</v>
+        <v>0.3669801599999999</v>
       </c>
       <c r="O16">
-        <v>-0.01242894400000002</v>
+        <v>0.08073563519999999</v>
       </c>
       <c r="P16">
-        <v>-0.04406625600000006</v>
+        <v>0.2862445248</v>
       </c>
       <c r="Q16">
-        <v>0.289933744</v>
+        <v>0.6202445248</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1227482634007312</v>
+        <v>0.1212309011855953</v>
       </c>
       <c r="T16">
-        <v>1.11756712838024</v>
+        <v>1.113769174913489</v>
       </c>
       <c r="U16">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V16">
-        <v>0.1963930535359107</v>
+        <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.09281660231660231</v>
+        <v>0.017628</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y16">
-        <v>0.892695697890503</v>
+        <v>4.562228013555446</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1195548308489532</v>
+        <v>0.1175053023419589</v>
       </c>
       <c r="C17">
-        <v>25.63513628303324</v>
+        <v>25.81553557555609</v>
       </c>
       <c r="D17">
-        <v>29.62713628303324</v>
+        <v>29.80753557555609</v>
       </c>
       <c r="E17">
         <v>1.824</v>
@@ -2740,37 +2740,37 @@
         <v>0.47</v>
       </c>
       <c r="M17">
-        <v>0.564102</v>
+        <v>0.5323560000000001</v>
       </c>
       <c r="N17">
-        <v>-0.09410200000000002</v>
+        <v>-0.06235600000000008</v>
       </c>
       <c r="O17">
-        <v>-0.02070244000000001</v>
+        <v>-0.01371832000000002</v>
       </c>
       <c r="P17">
-        <v>-0.07339956000000002</v>
+        <v>-0.04863768000000006</v>
       </c>
       <c r="Q17">
-        <v>0.26060044</v>
+        <v>0.28536232</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1240064782642692</v>
+        <v>0.1227423270795701</v>
       </c>
       <c r="T17">
-        <v>1.130714976949419</v>
+        <v>1.12880862829986</v>
       </c>
       <c r="U17">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V17">
-        <v>0.1833001833001833</v>
+        <v>0.1942309281758823</v>
       </c>
       <c r="W17">
-        <v>0.09432882882882883</v>
+        <v>0.08782882882882884</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>0.8331826513644696</v>
+        <v>0.8828678553449194</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1260968739717308</v>
+        <v>0.1185023023419589</v>
       </c>
       <c r="C18">
-        <v>23.55226070314972</v>
+        <v>25.21779742158412</v>
       </c>
       <c r="D18">
-        <v>27.86986070314972</v>
+        <v>29.53539742158413</v>
       </c>
       <c r="E18">
         <v>2.149600000000001</v>
@@ -2822,45 +2822,45 @@
         <v>0.47</v>
       </c>
       <c r="M18">
-        <v>0.7642483200000001</v>
+        <v>0.5678464000000001</v>
       </c>
       <c r="N18">
-        <v>-0.2942483200000001</v>
+        <v>-0.09784640000000011</v>
       </c>
       <c r="O18">
-        <v>-0.06473463040000002</v>
+        <v>-0.02152620800000003</v>
       </c>
       <c r="P18">
-        <v>-0.2295136896000001</v>
+        <v>-0.07632019200000009</v>
       </c>
       <c r="Q18">
-        <v>0.1044863104</v>
+        <v>0.257679808</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1259530352945315</v>
+        <v>0.1240928309733745</v>
       </c>
       <c r="T18">
-        <v>1.151055729397052</v>
+        <v>1.14224682625581</v>
       </c>
       <c r="U18">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V18">
-        <v>0.1352963392840693</v>
+        <v>0.1820914951648896</v>
       </c>
       <c r="W18">
-        <v>0.126852027027027</v>
+        <v>0.08915202702702703</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y18">
-        <v>0.6149833603821333</v>
+        <v>0.8276886143858619</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1274058739717308</v>
+        <v>0.1254472510425176</v>
       </c>
       <c r="C19">
-        <v>22.89978142375208</v>
+        <v>23.12614770364094</v>
       </c>
       <c r="D19">
-        <v>27.54298142375209</v>
+        <v>27.76934770364094</v>
       </c>
       <c r="E19">
         <v>2.475200000000001</v>
@@ -2904,37 +2904,37 @@
         <v>0.47</v>
       </c>
       <c r="M19">
-        <v>0.8120138400000001</v>
+        <v>0.77603504</v>
       </c>
       <c r="N19">
-        <v>-0.3420138400000001</v>
+        <v>-0.30603504</v>
       </c>
       <c r="O19">
-        <v>-0.07524304480000003</v>
+        <v>-0.06732770880000001</v>
       </c>
       <c r="P19">
-        <v>-0.2667707952000001</v>
+        <v>-0.2387073312</v>
       </c>
       <c r="Q19">
-        <v>0.0672292048</v>
+        <v>0.09529266880000004</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1272801802980801</v>
+        <v>0.1262517189375822</v>
       </c>
       <c r="T19">
-        <v>1.164923870715089</v>
+        <v>1.163728855267971</v>
       </c>
       <c r="U19">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V19">
-        <v>0.1273377310908888</v>
+        <v>0.1332414062127916</v>
       </c>
       <c r="W19">
-        <v>0.1280195548489666</v>
+        <v>0.1215195548489666</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>0.5788078685949489</v>
+        <v>0.6056427555126892</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1287148739717308</v>
+        <v>0.1267562510425176</v>
       </c>
       <c r="C20">
-        <v>22.2548810391746</v>
+        <v>22.49107012521127</v>
       </c>
       <c r="D20">
-        <v>27.2236810391746</v>
+        <v>27.45987012521127</v>
       </c>
       <c r="E20">
         <v>2.8008</v>
@@ -2986,37 +2986,37 @@
         <v>0.47</v>
       </c>
       <c r="M20">
-        <v>0.85977936</v>
+        <v>0.82168416</v>
       </c>
       <c r="N20">
-        <v>-0.38977936</v>
+        <v>-0.35168416</v>
       </c>
       <c r="O20">
-        <v>-0.0857514592</v>
+        <v>-0.0773705152</v>
       </c>
       <c r="P20">
-        <v>-0.3040279008</v>
+        <v>-0.2743136448</v>
       </c>
       <c r="Q20">
-        <v>0.02997209920000005</v>
+        <v>0.05968635520000004</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1286396946919591</v>
+        <v>0.1276779594124308</v>
       </c>
       <c r="T20">
-        <v>1.179130259382346</v>
+        <v>1.177920670576117</v>
       </c>
       <c r="U20">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V20">
-        <v>0.1202634126969505</v>
+        <v>0.1258391058676366</v>
       </c>
       <c r="W20">
-        <v>0.1290573573573573</v>
+        <v>0.1225573573573573</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>0.5466518758952297</v>
+        <v>0.5719959357619842</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1300238739717308</v>
+        <v>0.1280652510425175</v>
       </c>
       <c r="C21">
-        <v>21.6172989881272</v>
+        <v>21.8628145110617</v>
       </c>
       <c r="D21">
-        <v>26.91169898812721</v>
+        <v>27.1572145110617</v>
       </c>
       <c r="E21">
         <v>3.126400000000001</v>
@@ -3068,37 +3068,37 @@
         <v>0.47</v>
       </c>
       <c r="M21">
-        <v>0.9075448800000001</v>
+        <v>0.8673332800000001</v>
       </c>
       <c r="N21">
-        <v>-0.4375448800000001</v>
+        <v>-0.3973332800000001</v>
       </c>
       <c r="O21">
-        <v>-0.09625987360000003</v>
+        <v>-0.08741332160000002</v>
       </c>
       <c r="P21">
-        <v>-0.3412850064000001</v>
+        <v>-0.3099199584000001</v>
       </c>
       <c r="Q21">
-        <v>-0.007285006400000016</v>
+        <v>0.02408004159999999</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1300327773424771</v>
+        <v>0.1291394157014731</v>
       </c>
       <c r="T21">
-        <v>1.193687423078425</v>
+        <v>1.192462901077057</v>
       </c>
       <c r="U21">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V21">
-        <v>0.113933759397111</v>
+        <v>0.1192159950324978</v>
       </c>
       <c r="W21">
-        <v>0.1299859174964438</v>
+        <v>0.1234859174964438</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>0.5178807245323227</v>
+        <v>0.5418908865113534</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1405011103271218</v>
+        <v>0.1293742510425176</v>
       </c>
       <c r="C22">
-        <v>19.03061061221705</v>
+        <v>21.24115775046285</v>
       </c>
       <c r="D22">
-        <v>24.65061061221705</v>
+        <v>26.86115775046285</v>
       </c>
       <c r="E22">
         <v>3.452</v>
@@ -3150,45 +3150,45 @@
         <v>0.47</v>
       </c>
       <c r="M22">
-        <v>1.2385824</v>
+        <v>0.9129824</v>
       </c>
       <c r="N22">
-        <v>-0.7685824000000001</v>
+        <v>-0.4429824</v>
       </c>
       <c r="O22">
-        <v>-0.169088128</v>
+        <v>-0.097456128</v>
       </c>
       <c r="P22">
-        <v>-0.5994942720000001</v>
+        <v>-0.345526272</v>
       </c>
       <c r="Q22">
-        <v>-0.265494272</v>
+        <v>-0.01152627199999989</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1320459825034968</v>
+        <v>0.1306374083977415</v>
       </c>
       <c r="T22">
-        <v>1.214724622179179</v>
+        <v>1.20736868734052</v>
       </c>
       <c r="U22">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V22">
-        <v>0.08348253616392418</v>
+        <v>0.1132551952808729</v>
       </c>
       <c r="W22">
-        <v>0.1743216216216216</v>
+        <v>0.1243216216216216</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y22">
-        <v>0.3794660734723826</v>
+        <v>0.5147963421857858</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1422451103271218</v>
+        <v>0.140350976284987</v>
       </c>
       <c r="C23">
-        <v>18.365015931549</v>
+        <v>18.66568860274834</v>
       </c>
       <c r="D23">
-        <v>24.31061593154899</v>
+        <v>24.61128860274834</v>
       </c>
       <c r="E23">
         <v>3.7776</v>
@@ -3232,37 +3232,37 @@
         <v>0.47</v>
       </c>
       <c r="M23">
-        <v>1.30051152</v>
+        <v>1.25606712</v>
       </c>
       <c r="N23">
-        <v>-0.8305115200000002</v>
+        <v>-0.78606712</v>
       </c>
       <c r="O23">
-        <v>-0.1827125344</v>
+        <v>-0.1729347664</v>
       </c>
       <c r="P23">
-        <v>-0.6477989856000002</v>
+        <v>-0.6131323536</v>
       </c>
       <c r="Q23">
-        <v>-0.3137989856000001</v>
+        <v>-0.2791323535999999</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1335174506364525</v>
+        <v>0.1328476607096996</v>
       </c>
       <c r="T23">
-        <v>1.230100883219421</v>
+        <v>1.229361817635775</v>
       </c>
       <c r="U23">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V23">
-        <v>0.0795071772989754</v>
+        <v>0.08232044160187872</v>
       </c>
       <c r="W23">
-        <v>0.1750777348777349</v>
+        <v>0.1685777348777349</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>0.3613962604498882</v>
+        <v>0.3741838254630852</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1439891103271218</v>
+        <v>0.142094976284987</v>
       </c>
       <c r="C24">
-        <v>17.70867243799929</v>
+        <v>18.01686788669445</v>
       </c>
       <c r="D24">
-        <v>23.97987243799929</v>
+        <v>24.28806788669445</v>
       </c>
       <c r="E24">
         <v>4.103200000000001</v>
@@ -3314,37 +3314,37 @@
         <v>0.47</v>
       </c>
       <c r="M24">
-        <v>1.36244064</v>
+        <v>1.31587984</v>
       </c>
       <c r="N24">
-        <v>-0.8924406400000002</v>
+        <v>-0.8458798400000003</v>
       </c>
       <c r="O24">
-        <v>-0.1963369408000001</v>
+        <v>-0.1860935648000001</v>
       </c>
       <c r="P24">
-        <v>-0.6961036992000001</v>
+        <v>-0.6597862752000002</v>
       </c>
       <c r="Q24">
-        <v>-0.3621036992000001</v>
+        <v>-0.3257862752000001</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1350266487215352</v>
+        <v>0.1344316050777726</v>
       </c>
       <c r="T24">
-        <v>1.24587140736326</v>
+        <v>1.245122866579824</v>
       </c>
       <c r="U24">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V24">
-        <v>0.07589321469447652</v>
+        <v>0.07857860334724785</v>
       </c>
       <c r="W24">
-        <v>0.1757651105651106</v>
+        <v>0.1692651105651106</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>0.344969157702166</v>
+        <v>0.3571754697602175</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1457331103271218</v>
+        <v>0.143838976284987</v>
       </c>
       <c r="C25">
-        <v>17.06120761519483</v>
+        <v>17.37642685278714</v>
       </c>
       <c r="D25">
-        <v>23.65800761519483</v>
+        <v>23.97322685278715</v>
       </c>
       <c r="E25">
         <v>4.428800000000001</v>
@@ -3396,37 +3396,37 @@
         <v>0.47</v>
       </c>
       <c r="M25">
-        <v>1.42436976</v>
+        <v>1.37569256</v>
       </c>
       <c r="N25">
-        <v>-0.9543697600000003</v>
+        <v>-0.9056925600000003</v>
       </c>
       <c r="O25">
-        <v>-0.2099613472000001</v>
+        <v>-0.1992523632000001</v>
       </c>
       <c r="P25">
-        <v>-0.7444084128000003</v>
+        <v>-0.7064401968000003</v>
       </c>
       <c r="Q25">
-        <v>-0.4104084128000002</v>
+        <v>-0.3724401968000002</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1365750467568798</v>
+        <v>0.1360566908580034</v>
       </c>
       <c r="T25">
-        <v>1.262051555510835</v>
+        <v>1.261293293418522</v>
       </c>
       <c r="U25">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V25">
-        <v>0.07259350970776013</v>
+        <v>0.07516214233215011</v>
       </c>
       <c r="W25">
-        <v>0.176392714453584</v>
+        <v>0.169892714453584</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>0.329970498671637</v>
+        <v>0.3416461015097733</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1474771103271218</v>
+        <v>0.145582976284987</v>
       </c>
       <c r="C26">
-        <v>16.42226868196338</v>
+        <v>16.74404379909281</v>
       </c>
       <c r="D26">
-        <v>23.34466868196338</v>
+        <v>23.66644379909281</v>
       </c>
       <c r="E26">
         <v>4.7544</v>
@@ -3478,37 +3478,37 @@
         <v>0.47</v>
       </c>
       <c r="M26">
-        <v>1.48629888</v>
+        <v>1.43550528</v>
       </c>
       <c r="N26">
-        <v>-1.01629888</v>
+        <v>-0.9655052800000001</v>
       </c>
       <c r="O26">
-        <v>-0.2235857536</v>
+        <v>-0.2124111616</v>
       </c>
       <c r="P26">
-        <v>-0.7927131264000001</v>
+        <v>-0.7530941184000001</v>
       </c>
       <c r="Q26">
-        <v>-0.4587131264000001</v>
+        <v>-0.4190941184</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.138164192108944</v>
+        <v>0.1377245420535035</v>
       </c>
       <c r="T26">
-        <v>1.278657497030714</v>
+        <v>1.277889257805608</v>
       </c>
       <c r="U26">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V26">
-        <v>0.06956878013660348</v>
+        <v>0.07203038640164387</v>
       </c>
       <c r="W26">
-        <v>0.176968018018018</v>
+        <v>0.170468018018018</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>0.3162217278936521</v>
+        <v>0.3274108472801994</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3527,13 +3527,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1492211103271218</v>
+        <v>0.1473269762849869</v>
       </c>
       <c r="C27">
-        <v>15.79152130250054</v>
+        <v>16.11941328276535</v>
       </c>
       <c r="D27">
-        <v>23.03952130250054</v>
+        <v>23.36741328276536</v>
       </c>
       <c r="E27">
         <v>5.08</v>
@@ -3560,37 +3560,37 @@
         <v>0.47</v>
       </c>
       <c r="M27">
-        <v>1.548228</v>
+        <v>1.495318</v>
       </c>
       <c r="N27">
-        <v>-1.078228</v>
+        <v>-1.025318</v>
       </c>
       <c r="O27">
-        <v>-0.23721016</v>
+        <v>-0.22556996</v>
       </c>
       <c r="P27">
-        <v>-0.8410178400000001</v>
+        <v>-0.7997480400000001</v>
       </c>
       <c r="Q27">
-        <v>-0.5070178400000001</v>
+        <v>-0.46574804</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1397957146703966</v>
+        <v>0.1394368692808835</v>
       </c>
       <c r="T27">
-        <v>1.295706263657791</v>
+        <v>1.294927781243016</v>
       </c>
       <c r="U27">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V27">
-        <v>0.06678602893113934</v>
+        <v>0.06914917094557813</v>
       </c>
       <c r="W27">
-        <v>0.1774972972972973</v>
+        <v>0.1709972972972973</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>0.3035728587779061</v>
+        <v>0.3143144133889915</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3609,13 +3609,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1509651103271218</v>
+        <v>0.149070976284987</v>
       </c>
       <c r="C28">
-        <v>15.16864839639099</v>
+        <v>15.50224510567793</v>
       </c>
       <c r="D28">
-        <v>22.74224839639099</v>
+        <v>23.07584510567793</v>
       </c>
       <c r="E28">
         <v>5.4056</v>
@@ -3642,37 +3642,37 @@
         <v>0.47</v>
       </c>
       <c r="M28">
-        <v>1.61015712</v>
+        <v>1.55513072</v>
       </c>
       <c r="N28">
-        <v>-1.14015712</v>
+        <v>-1.08513072</v>
       </c>
       <c r="O28">
-        <v>-0.2508345664000001</v>
+        <v>-0.2387287584</v>
       </c>
       <c r="P28">
-        <v>-0.8893225536000002</v>
+        <v>-0.8464019616</v>
       </c>
       <c r="Q28">
-        <v>-0.5553225536000002</v>
+        <v>-0.5124019616</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1414713324362128</v>
+        <v>0.1411954756225171</v>
       </c>
       <c r="T28">
-        <v>1.313215807761274</v>
+        <v>1.312426805313868</v>
       </c>
       <c r="U28">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V28">
-        <v>0.06421733551071089</v>
+        <v>0.06648958744767128</v>
       </c>
       <c r="W28">
-        <v>0.1779858627858628</v>
+        <v>0.1714858627858628</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>0.2918969795941404</v>
+        <v>0.3022253974894149</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3691,13 +3691,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1527091103271218</v>
+        <v>0.150814976284987</v>
       </c>
       <c r="C29">
-        <v>14.55334903958019</v>
+        <v>14.89226337505984</v>
       </c>
       <c r="D29">
-        <v>22.45254903958019</v>
+        <v>22.79146337505984</v>
       </c>
       <c r="E29">
         <v>5.731200000000001</v>
@@ -3724,37 +3724,37 @@
         <v>0.47</v>
       </c>
       <c r="M29">
-        <v>1.67208624</v>
+        <v>1.61494344</v>
       </c>
       <c r="N29">
-        <v>-1.20208624</v>
+        <v>-1.14494344</v>
       </c>
       <c r="O29">
-        <v>-0.2644589728000001</v>
+        <v>-0.2518875568000001</v>
       </c>
       <c r="P29">
-        <v>-0.9376272672000002</v>
+        <v>-0.8930558832000002</v>
       </c>
       <c r="Q29">
-        <v>-0.6036272672000002</v>
+        <v>-0.5590558832000001</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1431928575380787</v>
+        <v>0.1430022629598119</v>
       </c>
       <c r="T29">
-        <v>1.33120506540184</v>
+        <v>1.330405254701729</v>
       </c>
       <c r="U29">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V29">
-        <v>0.06183891567698086</v>
+        <v>0.06402701013479455</v>
       </c>
       <c r="W29">
-        <v>0.1784382382382383</v>
+        <v>0.1719382382382383</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.2810859803499129</v>
+        <v>0.2910318642490661</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3773,13 +3773,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1544531103271218</v>
+        <v>0.152558976284987</v>
       </c>
       <c r="C30">
-        <v>13.94533744828848</v>
+        <v>14.28920563274684</v>
       </c>
       <c r="D30">
-        <v>22.17013744828848</v>
+        <v>22.51400563274684</v>
       </c>
       <c r="E30">
         <v>6.056800000000001</v>
@@ -3806,37 +3806,37 @@
         <v>0.47</v>
       </c>
       <c r="M30">
-        <v>1.73401536</v>
+        <v>1.67475616</v>
       </c>
       <c r="N30">
-        <v>-1.26401536</v>
+        <v>-1.20475616</v>
       </c>
       <c r="O30">
-        <v>-0.2780833792000001</v>
+        <v>-0.2650463552000001</v>
       </c>
       <c r="P30">
-        <v>-0.9859319808000002</v>
+        <v>-0.9397098048000002</v>
       </c>
       <c r="Q30">
-        <v>-0.6519319808000001</v>
+        <v>-0.6057098048000001</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1449622027816631</v>
+        <v>0.1448592388342537</v>
       </c>
       <c r="T30">
-        <v>1.349694024643532</v>
+        <v>1.348883105461475</v>
       </c>
       <c r="U30">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V30">
-        <v>0.05963038297423155</v>
+        <v>0.06174033120140904</v>
       </c>
       <c r="W30">
-        <v>0.1788583011583012</v>
+        <v>0.1723583011583011</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.2710471953374161</v>
+        <v>0.2806378690973138</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1561971103271218</v>
+        <v>0.154302976284987</v>
       </c>
       <c r="C31">
-        <v>13.34434203865557</v>
+        <v>13.69282204726829</v>
       </c>
       <c r="D31">
-        <v>21.89474203865557</v>
+        <v>22.24322204726829</v>
       </c>
       <c r="E31">
         <v>6.382399999999999</v>
@@ -3888,37 +3888,37 @@
         <v>0.47</v>
       </c>
       <c r="M31">
-        <v>1.79594448</v>
+        <v>1.73456888</v>
       </c>
       <c r="N31">
-        <v>-1.32594448</v>
+        <v>-1.26456888</v>
       </c>
       <c r="O31">
-        <v>-0.2917077856</v>
+        <v>-0.2782051536</v>
       </c>
       <c r="P31">
-        <v>-1.0342366944</v>
+        <v>-0.9863637263999999</v>
       </c>
       <c r="Q31">
-        <v>-0.7002366944</v>
+        <v>-0.6523637263999998</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1467813887363345</v>
+        <v>0.1467685238882573</v>
       </c>
       <c r="T31">
-        <v>1.368703799638511</v>
+        <v>1.367881459059525</v>
       </c>
       <c r="U31">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V31">
-        <v>0.05757416287167184</v>
+        <v>0.05961135426342942</v>
       </c>
       <c r="W31">
-        <v>0.179249394221808</v>
+        <v>0.172749394221808</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>0.2617007403257811</v>
+        <v>0.2709607011974065</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3937,13 +3937,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1579411103271218</v>
+        <v>0.156046976284987</v>
       </c>
       <c r="C32">
-        <v>12.75010455561116</v>
+        <v>13.10287466354366</v>
       </c>
       <c r="D32">
-        <v>21.62610455561116</v>
+        <v>21.97887466354366</v>
       </c>
       <c r="E32">
         <v>6.708</v>
@@ -3970,37 +3970,37 @@
         <v>0.47</v>
       </c>
       <c r="M32">
-        <v>1.8578736</v>
+        <v>1.7943816</v>
       </c>
       <c r="N32">
-        <v>-1.3878736</v>
+        <v>-1.3243816</v>
       </c>
       <c r="O32">
-        <v>-0.3053321920000001</v>
+        <v>-0.291363952</v>
       </c>
       <c r="P32">
-        <v>-1.082541408</v>
+        <v>-1.033017648</v>
       </c>
       <c r="Q32">
-        <v>-0.7485414080000001</v>
+        <v>-0.6990176480000001</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1486525514325678</v>
+        <v>0.1487323599438038</v>
       </c>
       <c r="T32">
-        <v>1.388256711061918</v>
+        <v>1.387422622760375</v>
       </c>
       <c r="U32">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V32">
-        <v>0.05565502410928278</v>
+        <v>0.05762430912131511</v>
       </c>
       <c r="W32">
-        <v>0.1796144144144144</v>
+        <v>0.1731144144144144</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.2529773823149217</v>
+        <v>0.2619286778241595</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1596851103271218</v>
+        <v>0.157790976284987</v>
       </c>
       <c r="C33">
-        <v>12.1623792650982</v>
+        <v>12.51913670545216</v>
       </c>
       <c r="D33">
-        <v>21.3639792650982</v>
+        <v>21.72073670545216</v>
       </c>
       <c r="E33">
         <v>7.0336</v>
@@ -4052,37 +4052,37 @@
         <v>0.47</v>
       </c>
       <c r="M33">
-        <v>1.91980272</v>
+        <v>1.85419432</v>
       </c>
       <c r="N33">
-        <v>-1.44980272</v>
+        <v>-1.38419432</v>
       </c>
       <c r="O33">
-        <v>-0.3189565984</v>
+        <v>-0.3045227504</v>
       </c>
       <c r="P33">
-        <v>-1.1308461216</v>
+        <v>-1.0796715696</v>
       </c>
       <c r="Q33">
-        <v>-0.7968461216</v>
+        <v>-0.7456715696</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.150577950728692</v>
+        <v>0.1507531187835691</v>
       </c>
       <c r="T33">
-        <v>1.408376373541077</v>
+        <v>1.407530197003279</v>
       </c>
       <c r="U33">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V33">
-        <v>0.05385970075091882</v>
+        <v>0.05576546043998235</v>
       </c>
       <c r="W33">
-        <v>0.1799558849171752</v>
+        <v>0.1734558849171753</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.2448168215950856</v>
+        <v>0.2534793656362835</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1614291103271218</v>
+        <v>0.1595349762849869</v>
       </c>
       <c r="C34">
-        <v>11.5809322043379</v>
+        <v>11.94139192697894</v>
       </c>
       <c r="D34">
-        <v>21.1081322043379</v>
+        <v>21.46859192697894</v>
       </c>
       <c r="E34">
         <v>7.359200000000001</v>
@@ -4134,37 +4134,37 @@
         <v>0.47</v>
       </c>
       <c r="M34">
-        <v>1.98173184</v>
+        <v>1.91400704</v>
       </c>
       <c r="N34">
-        <v>-1.51173184</v>
+        <v>-1.44400704</v>
       </c>
       <c r="O34">
-        <v>-0.3325810048000001</v>
+        <v>-0.3176815488000001</v>
       </c>
       <c r="P34">
-        <v>-1.1791508352</v>
+        <v>-1.1263254912</v>
       </c>
       <c r="Q34">
-        <v>-0.8451508352000001</v>
+        <v>-0.7923254912000002</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1525599794158786</v>
+        <v>0.1528333117068568</v>
       </c>
       <c r="T34">
-        <v>1.429087790799034</v>
+        <v>1.428229170488621</v>
       </c>
       <c r="U34">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V34">
-        <v>0.0521765851024526</v>
+        <v>0.0540227898012329</v>
       </c>
       <c r="W34">
-        <v>0.1802760135135135</v>
+        <v>0.1737760135135135</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.2371662959202391</v>
+        <v>0.2455581354601496</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1631731103271218</v>
+        <v>0.161278976284987</v>
       </c>
       <c r="C35">
-        <v>11.00554048532856</v>
+        <v>11.36943400803597</v>
       </c>
       <c r="D35">
-        <v>20.85834048532856</v>
+        <v>21.22223400803597</v>
       </c>
       <c r="E35">
         <v>7.684800000000001</v>
@@ -4216,37 +4216,37 @@
         <v>0.47</v>
       </c>
       <c r="M35">
-        <v>2.04366096</v>
+        <v>1.97381976</v>
       </c>
       <c r="N35">
-        <v>-1.57366096</v>
+        <v>-1.50381976</v>
       </c>
       <c r="O35">
-        <v>-0.3462054112000001</v>
+        <v>-0.3308403472000001</v>
       </c>
       <c r="P35">
-        <v>-1.2274555488</v>
+        <v>-1.1729794128</v>
       </c>
       <c r="Q35">
-        <v>-0.8934555488000002</v>
+        <v>-0.8389794128000001</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1546011731385037</v>
+        <v>0.1549755999412875</v>
       </c>
       <c r="T35">
-        <v>1.450417459318422</v>
+        <v>1.449546023779496</v>
       </c>
       <c r="U35">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V35">
-        <v>0.05059547646298434</v>
+        <v>0.05238573556483191</v>
       </c>
       <c r="W35">
-        <v>0.1805767403767404</v>
+        <v>0.1740767403767404</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.2299794384681106</v>
+        <v>0.238116979840145</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4265,13 +4265,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1649171103271218</v>
+        <v>0.163022976284987</v>
       </c>
       <c r="C36">
-        <v>10.43599164721996</v>
+        <v>10.80306599140976</v>
       </c>
       <c r="D36">
-        <v>20.61439164721996</v>
+        <v>20.98146599140976</v>
       </c>
       <c r="E36">
         <v>8.010400000000001</v>
@@ -4298,37 +4298,37 @@
         <v>0.47</v>
       </c>
       <c r="M36">
-        <v>2.10559008</v>
+        <v>2.03363248</v>
       </c>
       <c r="N36">
-        <v>-1.63559008</v>
+        <v>-1.56363248</v>
       </c>
       <c r="O36">
-        <v>-0.3598298176</v>
+        <v>-0.3439991456</v>
       </c>
       <c r="P36">
-        <v>-1.2757602624</v>
+        <v>-1.2196333344</v>
       </c>
       <c r="Q36">
-        <v>-0.9417602624000001</v>
+        <v>-0.8856333344</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1567042212163598</v>
+        <v>0.157182806001004</v>
       </c>
       <c r="T36">
-        <v>1.472393481429308</v>
+        <v>1.47150884232161</v>
       </c>
       <c r="U36">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V36">
-        <v>0.04910737421407304</v>
+        <v>0.05084497863645451</v>
       </c>
       <c r="W36">
-        <v>0.1808597774244833</v>
+        <v>0.1743597774244833</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.2232153373366956</v>
+        <v>0.2311135392566114</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1666611103271218</v>
+        <v>0.164766976284987</v>
       </c>
       <c r="C37">
-        <v>9.872083053608288</v>
+        <v>10.24209975760624</v>
       </c>
       <c r="D37">
-        <v>20.37608305360829</v>
+        <v>20.74609975760624</v>
       </c>
       <c r="E37">
         <v>8.336000000000002</v>
@@ -4380,37 +4380,37 @@
         <v>0.47</v>
       </c>
       <c r="M37">
-        <v>2.167519200000001</v>
+        <v>2.093445200000001</v>
       </c>
       <c r="N37">
-        <v>-1.697519200000001</v>
+        <v>-1.623445200000001</v>
       </c>
       <c r="O37">
-        <v>-0.3734542240000001</v>
+        <v>-0.3571579440000001</v>
       </c>
       <c r="P37">
-        <v>-1.324064976000001</v>
+        <v>-1.266287256</v>
       </c>
       <c r="Q37">
-        <v>-0.9900649760000004</v>
+        <v>-0.9322872560000004</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1588719784658423</v>
+        <v>0.1594579260933272</v>
       </c>
       <c r="T37">
-        <v>1.495045688835912</v>
+        <v>1.494147439895788</v>
       </c>
       <c r="U37">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V37">
-        <v>0.04770430637938523</v>
+        <v>0.04939226496112722</v>
       </c>
       <c r="W37">
-        <v>0.1811266409266409</v>
+        <v>0.1746266409266409</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.2168377562699328</v>
+        <v>0.224510295277851</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4429,13 +4429,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1684051103271218</v>
+        <v>0.166510976284987</v>
       </c>
       <c r="C38">
-        <v>9.313621331157984</v>
+        <v>9.686355534650223</v>
       </c>
       <c r="D38">
-        <v>20.14322133115799</v>
+        <v>20.51595553465022</v>
       </c>
       <c r="E38">
         <v>8.6616</v>
@@ -4462,37 +4462,37 @@
         <v>0.47</v>
       </c>
       <c r="M38">
-        <v>2.22944832</v>
+        <v>2.15325792</v>
       </c>
       <c r="N38">
-        <v>-1.75944832</v>
+        <v>-1.68325792</v>
       </c>
       <c r="O38">
-        <v>-0.3870786304000001</v>
+        <v>-0.3703167424000001</v>
       </c>
       <c r="P38">
-        <v>-1.3723696896</v>
+        <v>-1.3129411776</v>
       </c>
       <c r="Q38">
-        <v>-1.0383696896</v>
+        <v>-0.9789411776000001</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.161107478129371</v>
+        <v>0.1618041436885354</v>
       </c>
       <c r="T38">
-        <v>1.518405777723973</v>
+        <v>1.51749349364416</v>
       </c>
       <c r="U38">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V38">
-        <v>0.04637918675773564</v>
+        <v>0.04802025760109592</v>
       </c>
       <c r="W38">
-        <v>0.1813786786786787</v>
+        <v>0.1748786786786787</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.2108144852624347</v>
+        <v>0.2182738981867997</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4511,13 +4511,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1701491103271218</v>
+        <v>0.168254976284987</v>
       </c>
       <c r="C39">
-        <v>8.760421846281872</v>
+        <v>9.135661440154674</v>
       </c>
       <c r="D39">
-        <v>19.91562184628187</v>
+        <v>20.29086144015467</v>
       </c>
       <c r="E39">
         <v>8.9872</v>
@@ -4544,37 +4544,37 @@
         <v>0.47</v>
       </c>
       <c r="M39">
-        <v>2.29137744</v>
+        <v>2.21307064</v>
       </c>
       <c r="N39">
-        <v>-1.82137744</v>
+        <v>-1.74307064</v>
       </c>
       <c r="O39">
-        <v>-0.4007030368000001</v>
+        <v>-0.3834755408000001</v>
       </c>
       <c r="P39">
-        <v>-1.4206744032</v>
+        <v>-1.3595950992</v>
       </c>
       <c r="Q39">
-        <v>-1.0866744032</v>
+        <v>-1.0255950992</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1634139460361864</v>
+        <v>0.1642248443820042</v>
       </c>
       <c r="T39">
-        <v>1.542507456735465</v>
+        <v>1.541580691955972</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V39">
-        <v>0.04512569522374279</v>
+        <v>0.04672241280106629</v>
       </c>
       <c r="W39">
-        <v>0.1816170927684441</v>
+        <v>0.1751170927684441</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.2051167964715581</v>
+        <v>0.2123746036412104</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4593,13 +4593,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1718931103271218</v>
+        <v>0.1699989762849869</v>
       </c>
       <c r="C40">
-        <v>8.212308216903054</v>
+        <v>8.589853053208429</v>
       </c>
       <c r="D40">
-        <v>19.69310821690306</v>
+        <v>20.07065305320843</v>
       </c>
       <c r="E40">
         <v>9.312800000000001</v>
@@ -4626,37 +4626,37 @@
         <v>0.47</v>
       </c>
       <c r="M40">
-        <v>2.35330656</v>
+        <v>2.27288336</v>
       </c>
       <c r="N40">
-        <v>-1.883306560000001</v>
+        <v>-1.80288336</v>
       </c>
       <c r="O40">
-        <v>-0.4143274432000001</v>
+        <v>-0.3966343392000001</v>
       </c>
       <c r="P40">
-        <v>-1.4689791168</v>
+        <v>-1.4062490208</v>
       </c>
       <c r="Q40">
-        <v>-1.1349791168</v>
+        <v>-1.0722490208</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1657948161335443</v>
+        <v>0.1667236321946172</v>
       </c>
       <c r="T40">
-        <v>1.567386609263456</v>
+        <v>1.566444896664939</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V40">
-        <v>0.04393817692838114</v>
+        <v>0.04549287562209087</v>
       </c>
       <c r="W40">
-        <v>0.1818429587482219</v>
+        <v>0.1753429587482219</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.199718986038096</v>
+        <v>0.2067857982822312</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4675,13 +4675,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1736371103271218</v>
+        <v>0.171742976284987</v>
       </c>
       <c r="C41">
-        <v>7.669111856585138</v>
+        <v>8.048773013841339</v>
       </c>
       <c r="D41">
-        <v>19.47551185658514</v>
+        <v>19.85517301384134</v>
       </c>
       <c r="E41">
         <v>9.638400000000001</v>
@@ -4708,37 +4708,37 @@
         <v>0.47</v>
       </c>
       <c r="M41">
-        <v>2.41523568</v>
+        <v>2.33269608</v>
       </c>
       <c r="N41">
-        <v>-1.94523568</v>
+        <v>-1.86269608</v>
       </c>
       <c r="O41">
-        <v>-0.4279518496000001</v>
+        <v>-0.4097931376000001</v>
       </c>
       <c r="P41">
-        <v>-1.5172838304</v>
+        <v>-1.4529029424</v>
       </c>
       <c r="Q41">
-        <v>-1.1832838304</v>
+        <v>-1.1189029424</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1682537475455696</v>
+        <v>0.1693043474764961</v>
       </c>
       <c r="T41">
-        <v>1.593081471710398</v>
+        <v>1.59212432120043</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.04281155700714059</v>
+        <v>0.04432639163178085</v>
       </c>
       <c r="W41">
-        <v>0.1820572418572419</v>
+        <v>0.1755572418572419</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.1945979863960936</v>
+        <v>0.2014835983262766</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4757,13 +4757,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1753811103271218</v>
+        <v>0.173486976284987</v>
       </c>
       <c r="C42">
-        <v>7.13067154855457</v>
+        <v>7.512270648016447</v>
       </c>
       <c r="D42">
-        <v>19.26267154855457</v>
+        <v>19.64427064801645</v>
       </c>
       <c r="E42">
         <v>9.964</v>
@@ -4790,37 +4790,37 @@
         <v>0.47</v>
       </c>
       <c r="M42">
-        <v>2.4771648</v>
+        <v>2.3925088</v>
       </c>
       <c r="N42">
-        <v>-2.0071648</v>
+        <v>-1.9225088</v>
       </c>
       <c r="O42">
-        <v>-0.441576256</v>
+        <v>-0.4229519360000001</v>
       </c>
       <c r="P42">
-        <v>-1.565588544</v>
+        <v>-1.499556864</v>
       </c>
       <c r="Q42">
-        <v>-1.231588544</v>
+        <v>-1.165556864</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1707946433379958</v>
+        <v>0.1719710866011044</v>
       </c>
       <c r="T42">
-        <v>1.619632829572238</v>
+        <v>1.618659726553771</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.04174126808196209</v>
+        <v>0.04321823184098633</v>
       </c>
       <c r="W42">
-        <v>0.1822608108108108</v>
+        <v>0.1757608108108108</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.1897330367361914</v>
+        <v>0.1964465083681196</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4839,13 +4839,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1771251103271218</v>
+        <v>0.175230976284987</v>
       </c>
       <c r="C43">
-        <v>6.596833047353115</v>
+        <v>6.980201616270978</v>
       </c>
       <c r="D43">
-        <v>19.05443304735312</v>
+        <v>19.43780161627098</v>
       </c>
       <c r="E43">
         <v>10.2896</v>
@@ -4872,37 +4872,37 @@
         <v>0.47</v>
       </c>
       <c r="M43">
-        <v>2.53909392</v>
+        <v>2.45232152</v>
       </c>
       <c r="N43">
-        <v>-2.06909392</v>
+        <v>-1.98232152</v>
       </c>
       <c r="O43">
-        <v>-0.4552006624000001</v>
+        <v>-0.4361107344000001</v>
       </c>
       <c r="P43">
-        <v>-1.6138932576</v>
+        <v>-1.5462107856</v>
       </c>
       <c r="Q43">
-        <v>-1.2798932576</v>
+        <v>-1.2122107856</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1734216711911822</v>
+        <v>0.1747282236621401</v>
       </c>
       <c r="T43">
-        <v>1.647084233463293</v>
+        <v>1.646094637173326</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.04072318837264594</v>
+        <v>0.04216412862535251</v>
       </c>
       <c r="W43">
-        <v>0.1824544495715227</v>
+        <v>0.1759544495715228</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.1851054016938453</v>
+        <v>0.1916551301152387</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4921,13 +4921,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1788691103271218</v>
+        <v>0.176974976284987</v>
       </c>
       <c r="C44">
-        <v>6.06744870605193</v>
+        <v>6.452427584284486</v>
       </c>
       <c r="D44">
-        <v>18.85064870605193</v>
+        <v>19.23562758428449</v>
       </c>
       <c r="E44">
         <v>10.6152</v>
@@ -4954,37 +4954,37 @@
         <v>0.47</v>
       </c>
       <c r="M44">
-        <v>2.60102304</v>
+        <v>2.51213424</v>
       </c>
       <c r="N44">
-        <v>-2.131023040000001</v>
+        <v>-2.04213424</v>
       </c>
       <c r="O44">
-        <v>-0.4688250688000001</v>
+        <v>-0.4492695328</v>
       </c>
       <c r="P44">
-        <v>-1.6621979712</v>
+        <v>-1.5928647072</v>
       </c>
       <c r="Q44">
-        <v>-1.3281979712</v>
+        <v>-1.2588647072</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1761392862117197</v>
+        <v>0.1775804344149356</v>
       </c>
       <c r="T44">
-        <v>1.675482237488522</v>
+        <v>1.674475579193555</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.0397535886494877</v>
+        <v>0.04116022080093936</v>
       </c>
       <c r="W44">
-        <v>0.1826388674388674</v>
+        <v>0.1761388674388674</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.180698130224944</v>
+        <v>0.1870919127315425</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5003,13 +5003,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1806131103271218</v>
+        <v>0.178718976284987</v>
       </c>
       <c r="C45">
-        <v>5.542377127133824</v>
+        <v>5.928815913793917</v>
       </c>
       <c r="D45">
-        <v>18.65117712713382</v>
+        <v>19.03761591379392</v>
       </c>
       <c r="E45">
         <v>10.9408</v>
@@ -5036,37 +5036,37 @@
         <v>0.47</v>
       </c>
       <c r="M45">
-        <v>2.66295216</v>
+        <v>2.57194696</v>
       </c>
       <c r="N45">
-        <v>-2.19295216</v>
+        <v>-2.10194696</v>
       </c>
       <c r="O45">
-        <v>-0.4824494752</v>
+        <v>-0.4624283312</v>
       </c>
       <c r="P45">
-        <v>-1.7105026848</v>
+        <v>-1.6395186288</v>
       </c>
       <c r="Q45">
-        <v>-1.3765026848</v>
+        <v>-1.3055186288</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1789522561452587</v>
+        <v>0.1805327227380046</v>
       </c>
       <c r="T45">
-        <v>1.704876662707619</v>
+        <v>1.703852343740811</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.03882908658787171</v>
+        <v>0.04020300636370821</v>
       </c>
       <c r="W45">
-        <v>0.1828147077309868</v>
+        <v>0.1763147077309868</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.1764958481266896</v>
+        <v>0.1827409380168554</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5085,13 +5085,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1823571103271218</v>
+        <v>0.180462976284987</v>
       </c>
       <c r="C46">
-        <v>5.02148283530901</v>
+        <v>5.409239372404643</v>
       </c>
       <c r="D46">
-        <v>18.45588283530901</v>
+        <v>18.84363937240465</v>
       </c>
       <c r="E46">
         <v>11.2664</v>
@@ -5118,37 +5118,37 @@
         <v>0.47</v>
       </c>
       <c r="M46">
-        <v>2.72488128</v>
+        <v>2.63175968</v>
       </c>
       <c r="N46">
-        <v>-2.25488128</v>
+        <v>-2.16175968</v>
       </c>
       <c r="O46">
-        <v>-0.4960738816</v>
+        <v>-0.4755871296</v>
       </c>
       <c r="P46">
-        <v>-1.7588073984</v>
+        <v>-1.6861725504</v>
       </c>
       <c r="Q46">
-        <v>-1.4248073984</v>
+        <v>-1.3521725504</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1818656892907097</v>
+        <v>0.1835904499297547</v>
       </c>
       <c r="T46">
-        <v>1.735320888827398</v>
+        <v>1.734278278450468</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.03794660734723826</v>
+        <v>0.03928930167362393</v>
       </c>
       <c r="W46">
-        <v>0.1829825552825553</v>
+        <v>0.1764825552825553</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.172484578851083</v>
+        <v>0.1785877348801088</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1841011103271218</v>
+        <v>0.182206976284987</v>
       </c>
       <c r="C47">
-        <v>4.504635970673252</v>
+        <v>4.89357586096304</v>
       </c>
       <c r="D47">
-        <v>18.26463597067325</v>
+        <v>18.65357586096304</v>
       </c>
       <c r="E47">
         <v>11.592</v>
@@ -5200,37 +5200,37 @@
         <v>0.47</v>
       </c>
       <c r="M47">
-        <v>2.7868104</v>
+        <v>2.6915724</v>
       </c>
       <c r="N47">
-        <v>-2.3168104</v>
+        <v>-2.2215724</v>
       </c>
       <c r="O47">
-        <v>-0.5096982880000002</v>
+        <v>-0.4887459280000001</v>
       </c>
       <c r="P47">
-        <v>-1.807112112</v>
+        <v>-1.732826472</v>
       </c>
       <c r="Q47">
-        <v>-1.473112112</v>
+        <v>-1.398826472</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1848850654596317</v>
+        <v>0.1867593672012048</v>
       </c>
       <c r="T47">
-        <v>1.766872177715169</v>
+        <v>1.765810610785931</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.03710334940618851</v>
+        <v>0.03841620608087674</v>
       </c>
       <c r="W47">
-        <v>0.1831429429429429</v>
+        <v>0.1766429429429429</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.1686515882099477</v>
+        <v>0.1746191185494397</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5249,13 +5249,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1858451103271218</v>
+        <v>0.183950976284987</v>
       </c>
       <c r="C48">
-        <v>3.991712000747999</v>
+        <v>4.381708157263311</v>
       </c>
       <c r="D48">
-        <v>18.077312000748</v>
+        <v>18.46730815726331</v>
       </c>
       <c r="E48">
         <v>11.9176</v>
@@ -5282,37 +5282,37 @@
         <v>0.47</v>
       </c>
       <c r="M48">
-        <v>2.848739520000001</v>
+        <v>2.751385120000001</v>
       </c>
       <c r="N48">
-        <v>-2.378739520000001</v>
+        <v>-2.28138512</v>
       </c>
       <c r="O48">
-        <v>-0.5233226944000001</v>
+        <v>-0.5019047264000001</v>
       </c>
       <c r="P48">
-        <v>-1.855416825600001</v>
+        <v>-1.7794803936</v>
       </c>
       <c r="Q48">
-        <v>-1.521416825600001</v>
+        <v>-1.4454803936</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1880162703755509</v>
+        <v>0.1900456517790049</v>
       </c>
       <c r="T48">
-        <v>1.799592032858043</v>
+        <v>1.798510807281968</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.03629675485388006</v>
+        <v>0.03758107116607506</v>
       </c>
       <c r="W48">
-        <v>0.183296357226792</v>
+        <v>0.176796357226792</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.1649852493358184</v>
+        <v>0.1708230507548867</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5331,13 +5331,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1875891103271218</v>
+        <v>0.185694976284987</v>
       </c>
       <c r="C49">
-        <v>3.482591450060758</v>
+        <v>3.873523674957921</v>
       </c>
       <c r="D49">
-        <v>17.89379145006076</v>
+        <v>18.28472367495792</v>
       </c>
       <c r="E49">
         <v>12.2432</v>
@@ -5364,37 +5364,37 @@
         <v>0.47</v>
       </c>
       <c r="M49">
-        <v>2.91066864</v>
+        <v>2.811197840000001</v>
       </c>
       <c r="N49">
-        <v>-2.44066864</v>
+        <v>-2.34119784</v>
       </c>
       <c r="O49">
-        <v>-0.5369471008000001</v>
+        <v>-0.5150635248000001</v>
       </c>
       <c r="P49">
-        <v>-1.9037215392</v>
+        <v>-1.8261343152</v>
       </c>
       <c r="Q49">
-        <v>-1.5697215392</v>
+        <v>-1.4921343152</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1912656339675424</v>
+        <v>0.1934559470955899</v>
       </c>
       <c r="T49">
-        <v>1.833546599515742</v>
+        <v>1.832444973457099</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.03552448347401028</v>
+        <v>0.0367814739072224</v>
       </c>
       <c r="W49">
-        <v>0.1834432432432433</v>
+        <v>0.1769432432432432</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.161474924881865</v>
+        <v>0.1671885177601019</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1893331103271218</v>
+        <v>0.187438976284987</v>
       </c>
       <c r="C50">
-        <v>2.977159646031668</v>
+        <v>3.368914236629776</v>
       </c>
       <c r="D50">
-        <v>17.71395964603167</v>
+        <v>18.10571423662978</v>
       </c>
       <c r="E50">
         <v>12.5688</v>
@@ -5446,37 +5446,37 @@
         <v>0.47</v>
       </c>
       <c r="M50">
-        <v>2.97259776</v>
+        <v>2.87101056</v>
       </c>
       <c r="N50">
-        <v>-2.50259776</v>
+        <v>-2.40101056</v>
       </c>
       <c r="O50">
-        <v>-0.5505715072000001</v>
+        <v>-0.5282223232000001</v>
       </c>
       <c r="P50">
-        <v>-1.9520262528</v>
+        <v>-1.8727882368</v>
       </c>
       <c r="Q50">
-        <v>-1.6180262528</v>
+        <v>-1.5387882368</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1946399730823028</v>
+        <v>0.196997407616659</v>
       </c>
       <c r="T50">
-        <v>1.86880711104489</v>
+        <v>1.867684299869735</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.03478439006830174</v>
+        <v>0.03601519320082194</v>
       </c>
       <c r="W50">
-        <v>0.183584009009009</v>
+        <v>0.177084009009009</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.1581108639468261</v>
+        <v>0.1637054236400997</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5495,13 +5495,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1910771103271218</v>
+        <v>0.189182976284987</v>
       </c>
       <c r="C51">
-        <v>2.47530648003057</v>
+        <v>2.867775860065132</v>
       </c>
       <c r="D51">
-        <v>17.53770648003057</v>
+        <v>17.93017586006513</v>
       </c>
       <c r="E51">
         <v>12.8944</v>
@@ -5528,37 +5528,37 @@
         <v>0.47</v>
       </c>
       <c r="M51">
-        <v>3.03452688</v>
+        <v>2.93082328</v>
       </c>
       <c r="N51">
-        <v>-2.564526880000001</v>
+        <v>-2.460823280000001</v>
       </c>
       <c r="O51">
-        <v>-0.5641959136000002</v>
+        <v>-0.5413811216000001</v>
       </c>
       <c r="P51">
-        <v>-2.0003309664</v>
+        <v>-1.9194421584</v>
       </c>
       <c r="Q51">
-        <v>-1.6663309664</v>
+        <v>-1.5854421584</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1981466392211715</v>
+        <v>0.2006777489424758</v>
       </c>
       <c r="T51">
-        <v>1.905450387732045</v>
+        <v>1.904305560651494</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.03407450455670374</v>
+        <v>0.03528018925794802</v>
       </c>
       <c r="W51">
-        <v>0.183719029233315</v>
+        <v>0.177219029233315</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.1548841116213806</v>
+        <v>0.1603644966270363</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5577,13 +5577,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1928211103271218</v>
+        <v>0.190926976284987</v>
       </c>
       <c r="C52">
-        <v>1.976926182558405</v>
+        <v>2.370008556839824</v>
       </c>
       <c r="D52">
-        <v>17.36492618255841</v>
+        <v>17.75800855683983</v>
       </c>
       <c r="E52">
         <v>13.22</v>
@@ -5610,37 +5610,37 @@
         <v>0.47</v>
       </c>
       <c r="M52">
-        <v>3.096456</v>
+        <v>2.990636</v>
       </c>
       <c r="N52">
-        <v>-2.626456</v>
+        <v>-2.520636000000001</v>
       </c>
       <c r="O52">
-        <v>-0.5778203200000001</v>
+        <v>-0.5545399200000001</v>
       </c>
       <c r="P52">
-        <v>-2.04863568</v>
+        <v>-1.96609608</v>
       </c>
       <c r="Q52">
-        <v>-1.71463568</v>
+        <v>-1.63209608</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.2017935720055949</v>
+        <v>0.2045053039213253</v>
       </c>
       <c r="T52">
-        <v>1.943559395486686</v>
+        <v>1.942391671864525</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.03339301446556967</v>
+        <v>0.03457458547278906</v>
       </c>
       <c r="W52">
-        <v>0.1838486486486487</v>
+        <v>0.1773486486486487</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.1517864293889531</v>
+        <v>0.1571572066944956</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5659,13 +5659,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1945651103271218</v>
+        <v>0.192670976284987</v>
       </c>
       <c r="C53">
-        <v>1.48191711158832</v>
+        <v>1.875516142399071</v>
       </c>
       <c r="D53">
-        <v>17.19551711158832</v>
+        <v>17.58911614239907</v>
       </c>
       <c r="E53">
         <v>13.5456</v>
@@ -5692,37 +5692,37 @@
         <v>0.47</v>
       </c>
       <c r="M53">
-        <v>3.158385120000001</v>
+        <v>3.05044872</v>
       </c>
       <c r="N53">
-        <v>-2.68838512</v>
+        <v>-2.580448720000001</v>
       </c>
       <c r="O53">
-        <v>-0.5914447264000001</v>
+        <v>-0.5676987184000001</v>
       </c>
       <c r="P53">
-        <v>-2.0969403936</v>
+        <v>-2.012750001600001</v>
       </c>
       <c r="Q53">
-        <v>-1.7629403936</v>
+        <v>-1.678750001600001</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.2055893591893826</v>
+        <v>0.2084890856340054</v>
       </c>
       <c r="T53">
-        <v>1.983223872945598</v>
+        <v>1.982032318229107</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.03273824947604869</v>
+        <v>0.033896652424303</v>
       </c>
       <c r="W53">
-        <v>0.1839731849496556</v>
+        <v>0.1774731849496556</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.1488102248911305</v>
+        <v>0.1540756928377408</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5741,13 +5741,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1963091103271218</v>
+        <v>0.194414976284987</v>
       </c>
       <c r="C54">
-        <v>0.9901815531765408</v>
+        <v>1.384206056872991</v>
       </c>
       <c r="D54">
-        <v>17.02938155317654</v>
+        <v>17.42340605687299</v>
       </c>
       <c r="E54">
         <v>13.8712</v>
@@ -5774,37 +5774,37 @@
         <v>0.47</v>
       </c>
       <c r="M54">
-        <v>3.22031424</v>
+        <v>3.11026144</v>
       </c>
       <c r="N54">
-        <v>-2.750314240000001</v>
+        <v>-2.64026144</v>
       </c>
       <c r="O54">
-        <v>-0.6050691328000002</v>
+        <v>-0.5808575168</v>
       </c>
       <c r="P54">
-        <v>-2.145245107200001</v>
+        <v>-2.0594039232</v>
       </c>
       <c r="Q54">
-        <v>-1.8112451072</v>
+        <v>-1.7254039232</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.2095433041724947</v>
+        <v>0.2126388582513805</v>
       </c>
       <c r="T54">
-        <v>2.024541036965298</v>
+        <v>2.023324658192213</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.03210866775535545</v>
+        <v>0.03324479372383564</v>
       </c>
       <c r="W54">
-        <v>0.1840929313929314</v>
+        <v>0.1775929313929314</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.1459484897970701</v>
+        <v>0.1511126987447076</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5823,13 +5823,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1980531103271218</v>
+        <v>0.196158976284987</v>
       </c>
       <c r="C55">
-        <v>0.5016255335210502</v>
+        <v>0.8959891959262514</v>
       </c>
       <c r="D55">
-        <v>16.86642553352105</v>
+        <v>17.26078919592625</v>
       </c>
       <c r="E55">
         <v>14.1968</v>
@@ -5856,37 +5856,37 @@
         <v>0.47</v>
       </c>
       <c r="M55">
-        <v>3.282243360000001</v>
+        <v>3.17007416</v>
       </c>
       <c r="N55">
-        <v>-2.812243360000001</v>
+        <v>-2.700074160000001</v>
       </c>
       <c r="O55">
-        <v>-0.6186935392000003</v>
+        <v>-0.5940163152000002</v>
       </c>
       <c r="P55">
-        <v>-2.193549820800001</v>
+        <v>-2.1060578448</v>
       </c>
       <c r="Q55">
-        <v>-1.859549820800001</v>
+        <v>-1.7720578448</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.2136655021336117</v>
+        <v>0.2169652169375801</v>
       </c>
       <c r="T55">
-        <v>2.067616378177326</v>
+        <v>2.066374119004813</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.03150284383544308</v>
+        <v>0.03261753346489533</v>
       </c>
       <c r="W55">
-        <v>0.1842081591024987</v>
+        <v>0.1777081591024987</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.1431947447065594</v>
+        <v>0.1482615157495242</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1997971103271218</v>
+        <v>0.197902976284987</v>
       </c>
       <c r="C56">
-        <v>0.01615864170864967</v>
+        <v>0.4107797509925213</v>
       </c>
       <c r="D56">
-        <v>16.70655864170865</v>
+        <v>17.10117975099253</v>
       </c>
       <c r="E56">
         <v>14.5224</v>
@@ -5938,37 +5938,37 @@
         <v>0.47</v>
       </c>
       <c r="M56">
-        <v>3.344172480000001</v>
+        <v>3.22988688</v>
       </c>
       <c r="N56">
-        <v>-2.87417248</v>
+        <v>-2.759886880000001</v>
       </c>
       <c r="O56">
-        <v>-0.6323179456000001</v>
+        <v>-0.6071751136000002</v>
       </c>
       <c r="P56">
-        <v>-2.2418545344</v>
+        <v>-2.1527117664</v>
       </c>
       <c r="Q56">
-        <v>-1.9078545344</v>
+        <v>-1.8187117664</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2179669260930379</v>
+        <v>0.2214796781753536</v>
       </c>
       <c r="T56">
-        <v>2.112564560311615</v>
+        <v>2.111295295504918</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.03091945783849043</v>
+        <v>0.03201350506739727</v>
       </c>
       <c r="W56">
-        <v>0.1843191191191191</v>
+        <v>0.1778191191191191</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.1405429901749565</v>
+        <v>0.145515932124533</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5987,13 +5987,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.2015411103271218</v>
+        <v>0.199646976284987</v>
       </c>
       <c r="C57">
-        <v>-0.4663061375522553</v>
+        <v>-0.07150494170823052</v>
       </c>
       <c r="D57">
-        <v>16.54969386244775</v>
+        <v>16.94449505829177</v>
       </c>
       <c r="E57">
         <v>14.848</v>
@@ -6020,37 +6020,37 @@
         <v>0.47</v>
       </c>
       <c r="M57">
-        <v>3.4061016</v>
+        <v>3.2896996</v>
       </c>
       <c r="N57">
-        <v>-2.936101600000001</v>
+        <v>-2.8196996</v>
       </c>
       <c r="O57">
-        <v>-0.6459423520000002</v>
+        <v>-0.620333912</v>
       </c>
       <c r="P57">
-        <v>-2.290159248000001</v>
+        <v>-2.199365688</v>
       </c>
       <c r="Q57">
-        <v>-1.956159248000001</v>
+        <v>-1.865365688</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.222459524450661</v>
+        <v>0.2261947821348059</v>
       </c>
       <c r="T57">
-        <v>2.159510439429651</v>
+        <v>2.158212968738361</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.03035728587779061</v>
+        <v>0.03143144133889915</v>
       </c>
       <c r="W57">
-        <v>0.1844260442260442</v>
+        <v>0.1779260442260442</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.1379876630808663</v>
+        <v>0.1428701879040871</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6069,13 +6069,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.2032851103271218</v>
+        <v>0.201390976284987</v>
       </c>
       <c r="C58">
-        <v>-0.9458525818632175</v>
+        <v>-0.5509445439278515</v>
       </c>
       <c r="D58">
-        <v>16.39574741813679</v>
+        <v>16.79065545607215</v>
       </c>
       <c r="E58">
         <v>15.1736</v>
@@ -6102,37 +6102,37 @@
         <v>0.47</v>
       </c>
       <c r="M58">
-        <v>3.468030720000001</v>
+        <v>3.349512320000001</v>
       </c>
       <c r="N58">
-        <v>-2.998030720000001</v>
+        <v>-2.879512320000001</v>
       </c>
       <c r="O58">
-        <v>-0.6595667584000002</v>
+        <v>-0.6334927104000002</v>
       </c>
       <c r="P58">
-        <v>-2.3384639616</v>
+        <v>-2.246019609600001</v>
       </c>
       <c r="Q58">
-        <v>-2.0044639616</v>
+        <v>-1.912019609600001</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2271563318245396</v>
+        <v>0.231124209001506</v>
       </c>
       <c r="T58">
-        <v>2.208590222143961</v>
+        <v>2.207263263482414</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.02981519148711577</v>
+        <v>0.03087016560070452</v>
       </c>
       <c r="W58">
-        <v>0.1845291505791506</v>
+        <v>0.1780291505791506</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.135523597668708</v>
+        <v>0.1403189345486568</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6151,13 +6151,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.2050291103271218</v>
+        <v>0.203134976284987</v>
       </c>
       <c r="C59">
-        <v>-1.422561380334024</v>
+        <v>-1.027615850441371</v>
       </c>
       <c r="D59">
-        <v>16.24463861966598</v>
+        <v>16.63958414955863</v>
       </c>
       <c r="E59">
         <v>15.4992</v>
@@ -6184,37 +6184,37 @@
         <v>0.47</v>
       </c>
       <c r="M59">
-        <v>3.529959840000001</v>
+        <v>3.409325040000001</v>
       </c>
       <c r="N59">
-        <v>-3.059959840000001</v>
+        <v>-2.939325040000001</v>
       </c>
       <c r="O59">
-        <v>-0.6731911648000003</v>
+        <v>-0.6466515088000002</v>
       </c>
       <c r="P59">
-        <v>-2.386768675200001</v>
+        <v>-2.292673531200001</v>
       </c>
       <c r="Q59">
-        <v>-2.052768675200001</v>
+        <v>-1.958673531200001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.232071595355343</v>
+        <v>0.2362829115364248</v>
       </c>
       <c r="T59">
-        <v>2.259952785449635</v>
+        <v>2.258594967284331</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.02929211795225409</v>
+        <v>0.03032858374806058</v>
       </c>
       <c r="W59">
-        <v>0.1846286391654813</v>
+        <v>0.1781286391654813</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.133145990692064</v>
+        <v>0.1378571988548207</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.2067731103271218</v>
+        <v>0.204878976284987</v>
       </c>
       <c r="C60">
-        <v>-1.896510274605934</v>
+        <v>-1.501592916872806</v>
       </c>
       <c r="D60">
-        <v>16.09628972539407</v>
+        <v>16.49120708312719</v>
       </c>
       <c r="E60">
         <v>15.8248</v>
@@ -6266,37 +6266,37 @@
         <v>0.47</v>
       </c>
       <c r="M60">
-        <v>3.59188896</v>
+        <v>3.46913776</v>
       </c>
       <c r="N60">
-        <v>-3.12188896</v>
+        <v>-2.99913776</v>
       </c>
       <c r="O60">
-        <v>-0.6868155711999999</v>
+        <v>-0.6598103072</v>
       </c>
       <c r="P60">
-        <v>-2.4350733888</v>
+        <v>-2.3393274528</v>
       </c>
       <c r="Q60">
-        <v>-2.1010733888</v>
+        <v>-2.0053274528</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2372209190542796</v>
+        <v>0.2416872665730063</v>
       </c>
       <c r="T60">
-        <v>2.313761185103197</v>
+        <v>2.312371037933958</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.02878708143583592</v>
+        <v>0.02980567713171471</v>
       </c>
       <c r="W60">
-        <v>0.184724697110904</v>
+        <v>0.178224697110904</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.1308503701628906</v>
+        <v>0.1354803505987032</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6315,13 +6315,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.2085171103271218</v>
+        <v>0.206622976284987</v>
       </c>
       <c r="C61">
-        <v>-2.367774192217805</v>
+        <v>-1.972947180742391</v>
       </c>
       <c r="D61">
-        <v>15.95062580778219</v>
+        <v>16.34545281925761</v>
       </c>
       <c r="E61">
         <v>16.1504</v>
@@ -6348,37 +6348,37 @@
         <v>0.47</v>
       </c>
       <c r="M61">
-        <v>3.65381808</v>
+        <v>3.52895048</v>
       </c>
       <c r="N61">
-        <v>-3.18381808</v>
+        <v>-3.05895048</v>
       </c>
       <c r="O61">
-        <v>-0.7004399776</v>
+        <v>-0.6729691056</v>
       </c>
       <c r="P61">
-        <v>-2.4833781024</v>
+        <v>-2.3859813744</v>
       </c>
       <c r="Q61">
-        <v>-2.1493781024</v>
+        <v>-2.0519813744</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2426214292751157</v>
+        <v>0.247355248684543</v>
       </c>
       <c r="T61">
-        <v>2.370194384739861</v>
+        <v>2.368770331542103</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.02829916480133023</v>
+        <v>0.02930049616338056</v>
       </c>
       <c r="W61">
-        <v>0.184817498854787</v>
+        <v>0.178317498854787</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.1286325672787738</v>
+        <v>0.1331840734699117</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6397,13 +6397,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.2102611103271218</v>
+        <v>0.208366976284987</v>
       </c>
       <c r="C62">
-        <v>-2.836425372795649</v>
+        <v>-2.441747576150895</v>
       </c>
       <c r="D62">
-        <v>15.80757462720435</v>
+        <v>16.20225242384911</v>
       </c>
       <c r="E62">
         <v>16.476</v>
@@ -6430,37 +6430,37 @@
         <v>0.47</v>
       </c>
       <c r="M62">
-        <v>3.7157472</v>
+        <v>3.5887632</v>
       </c>
       <c r="N62">
-        <v>-3.2457472</v>
+        <v>-3.1187632</v>
       </c>
       <c r="O62">
-        <v>-0.7140643840000001</v>
+        <v>-0.686127904</v>
       </c>
       <c r="P62">
-        <v>-2.531682816</v>
+        <v>-2.432635296</v>
       </c>
       <c r="Q62">
-        <v>-2.197682816</v>
+        <v>-2.098635296</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2482919650069937</v>
+        <v>0.2533066299016565</v>
       </c>
       <c r="T62">
-        <v>2.429449244358358</v>
+        <v>2.427989589830655</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.02782751205464139</v>
+        <v>0.02881215456065755</v>
       </c>
       <c r="W62">
-        <v>0.1849072072072072</v>
+        <v>0.1784072072072072</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.1264886911574609</v>
+        <v>0.1309643389120798</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6479,13 +6479,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.2120051103271218</v>
+        <v>0.210110976284987</v>
       </c>
       <c r="C63">
-        <v>-3.302533487512335</v>
+        <v>-2.908060642487921</v>
       </c>
       <c r="D63">
-        <v>15.66706651248766</v>
+        <v>16.06153935751208</v>
       </c>
       <c r="E63">
         <v>16.8016</v>
@@ -6512,37 +6512,37 @@
         <v>0.47</v>
       </c>
       <c r="M63">
-        <v>3.77767632</v>
+        <v>3.64857592</v>
       </c>
       <c r="N63">
-        <v>-3.30767632</v>
+        <v>-3.17857592</v>
       </c>
       <c r="O63">
-        <v>-0.7276887903999999</v>
+        <v>-0.6992867024</v>
       </c>
       <c r="P63">
-        <v>-2.5799875296</v>
+        <v>-2.4792892176</v>
       </c>
       <c r="Q63">
-        <v>-2.2459875296</v>
+        <v>-2.1452892176</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2542532974430704</v>
+        <v>0.2595632101555452</v>
       </c>
       <c r="T63">
-        <v>2.49174281472652</v>
+        <v>2.490245733159647</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.02737132333243416</v>
+        <v>0.02833982415802383</v>
       </c>
       <c r="W63">
-        <v>0.184993974302171</v>
+        <v>0.178493974302171</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.124415106056519</v>
+        <v>0.1288173825364719</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6561,13 +6561,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.2137491103271218</v>
+        <v>0.211854976284987</v>
       </c>
       <c r="C64">
-        <v>-3.766165752232421</v>
+        <v>-3.371950627524331</v>
       </c>
       <c r="D64">
-        <v>15.52903424776758</v>
+        <v>15.92324937247567</v>
       </c>
       <c r="E64">
         <v>17.1272</v>
@@ -6594,37 +6594,37 @@
         <v>0.47</v>
       </c>
       <c r="M64">
-        <v>3.83960544</v>
+        <v>3.70838864</v>
       </c>
       <c r="N64">
-        <v>-3.36960544</v>
+        <v>-3.23838864</v>
       </c>
       <c r="O64">
-        <v>-0.7413131968</v>
+        <v>-0.7124455008</v>
       </c>
       <c r="P64">
-        <v>-2.6282922432</v>
+        <v>-2.5259431392</v>
       </c>
       <c r="Q64">
-        <v>-2.2942922432</v>
+        <v>-2.1919431392</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.260528384217888</v>
+        <v>0.2661490841070069</v>
       </c>
       <c r="T64">
-        <v>2.557314994061429</v>
+        <v>2.555778515611216</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.02692985037545941</v>
+        <v>0.02788273021999118</v>
       </c>
       <c r="W64">
-        <v>0.1850779424585876</v>
+        <v>0.1785779424585876</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.1224084107975428</v>
+        <v>0.1267396828181417</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6643,13 +6643,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.2154931103271218</v>
+        <v>0.213598976284987</v>
       </c>
       <c r="C65">
-        <v>-4.227387034728057</v>
+        <v>-3.833479585224346</v>
       </c>
       <c r="D65">
-        <v>15.39341296527195</v>
+        <v>15.78732041477566</v>
       </c>
       <c r="E65">
         <v>17.4528</v>
@@ -6676,37 +6676,37 @@
         <v>0.47</v>
       </c>
       <c r="M65">
-        <v>3.90153456</v>
+        <v>3.76820136</v>
       </c>
       <c r="N65">
-        <v>-3.43153456</v>
+        <v>-3.29820136</v>
       </c>
       <c r="O65">
-        <v>-0.7549376032</v>
+        <v>-0.7256042992</v>
       </c>
       <c r="P65">
-        <v>-2.6765969568</v>
+        <v>-2.5725970608</v>
       </c>
       <c r="Q65">
-        <v>-2.3425969568</v>
+        <v>-2.2385970608</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2671426648724255</v>
+        <v>0.2730909512450342</v>
       </c>
       <c r="T65">
-        <v>2.626431615522548</v>
+        <v>2.624853610627736</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.0265023924329918</v>
+        <v>0.02744014720062624</v>
       </c>
       <c r="W65">
-        <v>0.185159244959245</v>
+        <v>0.178659244959245</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.1204654201499628</v>
+        <v>0.1247279418210284</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6725,13 +6725,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2172371103271218</v>
+        <v>0.2153429762849869</v>
       </c>
       <c r="C66">
-        <v>-4.686259956325465</v>
+        <v>-4.292707468590219</v>
       </c>
       <c r="D66">
-        <v>15.26014004367454</v>
+        <v>15.65369253140978</v>
       </c>
       <c r="E66">
         <v>17.7784</v>
@@ -6758,37 +6758,37 @@
         <v>0.47</v>
       </c>
       <c r="M66">
-        <v>3.963463680000001</v>
+        <v>3.828014080000001</v>
       </c>
       <c r="N66">
-        <v>-3.493463680000001</v>
+        <v>-3.358014080000001</v>
       </c>
       <c r="O66">
-        <v>-0.7685620096000001</v>
+        <v>-0.7387630976000003</v>
       </c>
       <c r="P66">
-        <v>-2.7249016704</v>
+        <v>-2.619250982400001</v>
       </c>
       <c r="Q66">
-        <v>-2.3909016704</v>
+        <v>-2.285250982400001</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2741244055633262</v>
+        <v>0.2804184776685073</v>
       </c>
       <c r="T66">
-        <v>2.699388049287064</v>
+        <v>2.697766210922951</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.0260882925512263</v>
+        <v>0.02701139490061645</v>
       </c>
       <c r="W66">
-        <v>0.1852380067567568</v>
+        <v>0.1787380067567568</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.1185831479601196</v>
+        <v>0.1227790677300747</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6807,13 +6807,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2189811103271218</v>
+        <v>0.217086976284987</v>
       </c>
       <c r="C67">
-        <v>-5.142844988316483</v>
+        <v>-4.749692217831367</v>
       </c>
       <c r="D67">
-        <v>15.12915501168352</v>
+        <v>15.52230778216864</v>
       </c>
       <c r="E67">
         <v>18.104</v>
@@ -6840,37 +6840,37 @@
         <v>0.47</v>
       </c>
       <c r="M67">
-        <v>4.025392800000001</v>
+        <v>3.8878268</v>
       </c>
       <c r="N67">
-        <v>-3.555392800000001</v>
+        <v>-3.4178268</v>
       </c>
       <c r="O67">
-        <v>-0.7821864160000002</v>
+        <v>-0.751921896</v>
       </c>
       <c r="P67">
-        <v>-2.773206384000001</v>
+        <v>-2.665904904</v>
       </c>
       <c r="Q67">
-        <v>-2.439206384000001</v>
+        <v>-2.331904904</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2815051028651356</v>
+        <v>0.2881647198876076</v>
       </c>
       <c r="T67">
-        <v>2.776513422123837</v>
+        <v>2.77484524552075</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.02568693420428436</v>
+        <v>0.02659583497906851</v>
       </c>
       <c r="W67">
-        <v>0.1853143451143451</v>
+        <v>0.1788143451143451</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.1167587918376561</v>
+        <v>0.1208901589957661</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6889,13 +6889,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2207251103271218</v>
+        <v>0.218830976284987</v>
       </c>
       <c r="C68">
-        <v>-5.597200543447121</v>
+        <v>-5.204489844130222</v>
       </c>
       <c r="D68">
-        <v>15.00039945655288</v>
+        <v>15.39311015586978</v>
       </c>
       <c r="E68">
         <v>18.4296</v>
@@ -6922,37 +6922,37 @@
         <v>0.47</v>
       </c>
       <c r="M68">
-        <v>4.087321920000001</v>
+        <v>3.947639520000001</v>
       </c>
       <c r="N68">
-        <v>-3.617321920000001</v>
+        <v>-3.47763952</v>
       </c>
       <c r="O68">
-        <v>-0.7958108224000002</v>
+        <v>-0.7650806944</v>
       </c>
       <c r="P68">
-        <v>-2.821511097600001</v>
+        <v>-2.7125588256</v>
       </c>
       <c r="Q68">
-        <v>-2.487511097600001</v>
+        <v>-2.3785588256</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2893199588317572</v>
+        <v>0.2963666234137137</v>
       </c>
       <c r="T68">
-        <v>2.858175581598068</v>
+        <v>2.856458340977242</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.02529773823149217</v>
+        <v>0.02619286778241596</v>
       </c>
       <c r="W68">
-        <v>0.1853883701883702</v>
+        <v>0.1788883701883702</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.1149897192340552</v>
+        <v>0.1190584899200726</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6971,13 +6971,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2224691103271218</v>
+        <v>0.220574976284987</v>
       </c>
       <c r="C69">
-        <v>-6.049383062773886</v>
+        <v>-5.657154509259453</v>
       </c>
       <c r="D69">
-        <v>14.87381693722612</v>
+        <v>15.26604549074055</v>
       </c>
       <c r="E69">
         <v>18.75520000000001</v>
@@ -7004,37 +7004,37 @@
         <v>0.47</v>
       </c>
       <c r="M69">
-        <v>4.149251040000001</v>
+        <v>4.007452240000001</v>
       </c>
       <c r="N69">
-        <v>-3.679251040000001</v>
+        <v>-3.537452240000001</v>
       </c>
       <c r="O69">
-        <v>-0.8094352288000003</v>
+        <v>-0.7782394928000003</v>
       </c>
       <c r="P69">
-        <v>-2.869815811200001</v>
+        <v>-2.759212747200001</v>
       </c>
       <c r="Q69">
-        <v>-2.535815811200001</v>
+        <v>-2.425212747200001</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2976084424327196</v>
+        <v>0.305065612002008</v>
       </c>
       <c r="T69">
-        <v>2.944786962858615</v>
+        <v>2.94301768464322</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.02492016004893258</v>
+        <v>0.02580192945730527</v>
       </c>
       <c r="W69">
-        <v>0.185460185558693</v>
+        <v>0.178960185558693</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.1132734547678753</v>
+        <v>0.1172814975332057</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7053,13 +7053,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2242131103271218</v>
+        <v>0.222318976284987</v>
       </c>
       <c r="C70">
-        <v>-6.499447098159219</v>
+        <v>-6.107738601288098</v>
       </c>
       <c r="D70">
-        <v>14.74935290184078</v>
+        <v>15.1410613987119</v>
       </c>
       <c r="E70">
         <v>19.0808</v>
@@ -7086,37 +7086,37 @@
         <v>0.47</v>
       </c>
       <c r="M70">
-        <v>4.211180160000001</v>
+        <v>4.06726496</v>
       </c>
       <c r="N70">
-        <v>-3.741180160000001</v>
+        <v>-3.59726496</v>
       </c>
       <c r="O70">
-        <v>-0.8230596352000001</v>
+        <v>-0.7913982912</v>
       </c>
       <c r="P70">
-        <v>-2.918120524800001</v>
+        <v>-2.8058666688</v>
       </c>
       <c r="Q70">
-        <v>-2.584120524800001</v>
+        <v>-2.4718666688</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.3064149562587421</v>
+        <v>0.3143082873770708</v>
       </c>
       <c r="T70">
-        <v>3.036811555447947</v>
+        <v>3.03498698728832</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.02455368710703652</v>
+        <v>0.02542248931822725</v>
       </c>
       <c r="W70">
-        <v>0.1855298887122417</v>
+        <v>0.1790298887122417</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.1116076686683477</v>
+        <v>0.1155567696283056</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7135,13 +7135,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2259571103271218</v>
+        <v>0.224062976284987</v>
       </c>
       <c r="C71">
-        <v>-6.947445390659396</v>
+        <v>-6.556292806599137</v>
       </c>
       <c r="D71">
-        <v>14.62695460934061</v>
+        <v>15.01810719340087</v>
       </c>
       <c r="E71">
         <v>19.4064</v>
@@ -7168,37 +7168,37 @@
         <v>0.47</v>
       </c>
       <c r="M71">
-        <v>4.273109280000001</v>
+        <v>4.127077680000001</v>
       </c>
       <c r="N71">
-        <v>-3.803109280000001</v>
+        <v>-3.657077680000001</v>
       </c>
       <c r="O71">
-        <v>-0.8366840416000002</v>
+        <v>-0.8045570896000003</v>
       </c>
       <c r="P71">
-        <v>-2.966425238400001</v>
+        <v>-2.852520590400001</v>
       </c>
       <c r="Q71">
-        <v>-2.632425238400001</v>
+        <v>-2.518520590400001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.3157896322670886</v>
+        <v>0.3241472643892344</v>
       </c>
       <c r="T71">
-        <v>3.134773218526913</v>
+        <v>3.132889793329879</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.02419783656925338</v>
+        <v>0.02505404744405004</v>
       </c>
       <c r="W71">
-        <v>0.185597571484528</v>
+        <v>0.179097571484528</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.1099901662238789</v>
+        <v>0.113882033836591</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7217,13 +7217,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2277011103271218</v>
+        <v>0.225806976284987</v>
       </c>
       <c r="C72">
-        <v>-7.393428945041485</v>
+        <v>-7.002866178426268</v>
       </c>
       <c r="D72">
-        <v>14.50657105495852</v>
+        <v>14.89713382157374</v>
       </c>
       <c r="E72">
         <v>19.73200000000001</v>
@@ -7250,37 +7250,37 @@
         <v>0.47</v>
       </c>
       <c r="M72">
-        <v>4.335038400000001</v>
+        <v>4.186890400000001</v>
       </c>
       <c r="N72">
-        <v>-3.865038400000001</v>
+        <v>-3.716890400000001</v>
       </c>
       <c r="O72">
-        <v>-0.8503084480000003</v>
+        <v>-0.8177158880000003</v>
       </c>
       <c r="P72">
-        <v>-3.014729952000001</v>
+        <v>-2.899174512000001</v>
       </c>
       <c r="Q72">
-        <v>-2.680729952000001</v>
+        <v>-2.565174512000001</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.3257892866759915</v>
+        <v>0.3346421732022089</v>
       </c>
       <c r="T72">
-        <v>3.239265659144477</v>
+        <v>3.237319453107542</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.02385215318969261</v>
+        <v>0.02469613248056361</v>
       </c>
       <c r="W72">
-        <v>0.1856633204633205</v>
+        <v>0.1791633204633205</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.1084188781349664</v>
+        <v>0.1122551476389254</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7299,13 +7299,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2294451103271218</v>
+        <v>0.227550976284987</v>
       </c>
       <c r="C73">
-        <v>-7.837447100650611</v>
+        <v>-7.44750620210478</v>
       </c>
       <c r="D73">
-        <v>14.38815289934939</v>
+        <v>14.77809379789522</v>
       </c>
       <c r="E73">
         <v>20.0576</v>
@@ -7332,37 +7332,37 @@
         <v>0.47</v>
       </c>
       <c r="M73">
-        <v>4.39696752</v>
+        <v>4.24670312</v>
       </c>
       <c r="N73">
-        <v>-3.926967520000001</v>
+        <v>-3.776703120000001</v>
       </c>
       <c r="O73">
-        <v>-0.8639328544000001</v>
+        <v>-0.8308746864000002</v>
       </c>
       <c r="P73">
-        <v>-3.0630346656</v>
+        <v>-2.9458284336</v>
       </c>
       <c r="Q73">
-        <v>-2.7290346656</v>
+        <v>-2.6118284336</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.3364785724234394</v>
+        <v>0.3458608688298712</v>
       </c>
       <c r="T73">
-        <v>3.350964474977044</v>
+        <v>3.348951158387111</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.02351620737011948</v>
+        <v>0.02434829962872469</v>
       </c>
       <c r="W73">
-        <v>0.1857272173582033</v>
+        <v>0.1792272173582033</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.1068918516823613</v>
+        <v>0.1106740892214758</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7381,13 +7381,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2311891103271217</v>
+        <v>0.229294976284987</v>
       </c>
       <c r="C74">
-        <v>-8.279547598834366</v>
+        <v>-7.890258857218786</v>
       </c>
       <c r="D74">
-        <v>14.27165240116564</v>
+        <v>14.66094114278122</v>
       </c>
       <c r="E74">
         <v>20.3832</v>
@@ -7414,37 +7414,37 @@
         <v>0.47</v>
       </c>
       <c r="M74">
-        <v>4.458896640000001</v>
+        <v>4.30651584</v>
       </c>
       <c r="N74">
-        <v>-3.988896640000001</v>
+        <v>-3.836515840000001</v>
       </c>
       <c r="O74">
-        <v>-0.8775572608000002</v>
+        <v>-0.8440334848000002</v>
       </c>
       <c r="P74">
-        <v>-3.111339379200001</v>
+        <v>-2.9924823552</v>
       </c>
       <c r="Q74">
-        <v>-2.777339379200001</v>
+        <v>-2.6584823552</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3479313785814194</v>
+        <v>0.3578808998595094</v>
       </c>
       <c r="T74">
-        <v>3.470641777654796</v>
+        <v>3.468556556900937</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.02318959337886782</v>
+        <v>0.02401012880054796</v>
       </c>
       <c r="W74">
-        <v>0.1857893393393393</v>
+        <v>0.1792893393393393</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.1054072426312174</v>
+        <v>0.1091369490933998</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2329331103271218</v>
+        <v>0.231038976284987</v>
       </c>
       <c r="C75">
-        <v>-8.719776647117866</v>
+        <v>-8.331168676815631</v>
       </c>
       <c r="D75">
-        <v>14.15702335288214</v>
+        <v>14.54563132318437</v>
       </c>
       <c r="E75">
         <v>20.7088</v>
@@ -7496,37 +7496,37 @@
         <v>0.47</v>
       </c>
       <c r="M75">
-        <v>4.520825760000001</v>
+        <v>4.36632856</v>
       </c>
       <c r="N75">
-        <v>-4.050825760000001</v>
+        <v>-3.896328560000001</v>
       </c>
       <c r="O75">
-        <v>-0.8911816672000002</v>
+        <v>-0.8571922832000002</v>
       </c>
       <c r="P75">
-        <v>-3.159644092800001</v>
+        <v>-3.0391362768</v>
       </c>
       <c r="Q75">
-        <v>-2.825644092800001</v>
+        <v>-2.7051362768</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3602325407511016</v>
+        <v>0.3707913035580098</v>
       </c>
       <c r="T75">
-        <v>3.599184065716085</v>
+        <v>3.597021614563934</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.0228719277161436</v>
+        <v>0.02368122292656785</v>
       </c>
       <c r="W75">
-        <v>0.1858497593483895</v>
+        <v>0.1793497593483895</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.1039633078006527</v>
+        <v>0.1076419223934901</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7545,13 +7545,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2346771103271217</v>
+        <v>0.232782976284987</v>
       </c>
       <c r="C76">
-        <v>-9.158178980310792</v>
+        <v>-8.770278803847786</v>
       </c>
       <c r="D76">
-        <v>14.04422101968921</v>
+        <v>14.43212119615221</v>
       </c>
       <c r="E76">
         <v>21.0344</v>
@@ -7578,37 +7578,37 @@
         <v>0.47</v>
       </c>
       <c r="M76">
-        <v>4.58275488</v>
+        <v>4.42614128</v>
       </c>
       <c r="N76">
-        <v>-4.112754880000001</v>
+        <v>-3.956141280000001</v>
       </c>
       <c r="O76">
-        <v>-0.9048060736000002</v>
+        <v>-0.8703510816000002</v>
       </c>
       <c r="P76">
-        <v>-3.207948806400001</v>
+        <v>-3.085790198400001</v>
       </c>
       <c r="Q76">
-        <v>-2.8739488064</v>
+        <v>-2.751790198400001</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3734799461646055</v>
+        <v>0.3846948152333178</v>
       </c>
       <c r="T76">
-        <v>3.73761422208978</v>
+        <v>3.73536859973947</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.02256284761187139</v>
+        <v>0.02336120640053315</v>
       </c>
       <c r="W76">
-        <v>0.1859085463842221</v>
+        <v>0.179408546384222</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.1025583982357791</v>
+        <v>0.1061873018206052</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7627,13 +7627,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2364211103271218</v>
+        <v>0.2345269762849869</v>
       </c>
       <c r="C77">
-        <v>-9.594797918716196</v>
+        <v>-9.207631044992478</v>
       </c>
       <c r="D77">
-        <v>13.93320208128381</v>
+        <v>14.32036895500752</v>
       </c>
       <c r="E77">
         <v>21.36</v>
@@ -7660,37 +7660,37 @@
         <v>0.47</v>
       </c>
       <c r="M77">
-        <v>4.644684000000001</v>
+        <v>4.485954</v>
       </c>
       <c r="N77">
-        <v>-4.174684000000001</v>
+        <v>-4.015954000000001</v>
       </c>
       <c r="O77">
-        <v>-0.9184304800000002</v>
+        <v>-0.8835098800000002</v>
       </c>
       <c r="P77">
-        <v>-3.256253520000001</v>
+        <v>-3.132444120000001</v>
       </c>
       <c r="Q77">
-        <v>-2.922253520000001</v>
+        <v>-2.798444120000001</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3877871440111897</v>
+        <v>0.3997106078426506</v>
       </c>
       <c r="T77">
-        <v>3.887118790973371</v>
+        <v>3.884783343729049</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.02226200964371311</v>
+        <v>0.02304972364852604</v>
       </c>
       <c r="W77">
-        <v>0.1859657657657658</v>
+        <v>0.1794657657657658</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.1011909529259686</v>
+        <v>0.1047714711296638</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7709,13 +7709,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2381651103271218</v>
+        <v>0.2362709762849869</v>
       </c>
       <c r="C78">
-        <v>-10.0296754236</v>
+        <v>-9.643265921990031</v>
       </c>
       <c r="D78">
-        <v>13.8239245764</v>
+        <v>14.21033407800997</v>
       </c>
       <c r="E78">
         <v>21.6856</v>
@@ -7742,37 +7742,37 @@
         <v>0.47</v>
       </c>
       <c r="M78">
-        <v>4.706613120000001</v>
+        <v>4.54576672</v>
       </c>
       <c r="N78">
-        <v>-4.236613120000001</v>
+        <v>-4.075766720000001</v>
       </c>
       <c r="O78">
-        <v>-0.9320548864000002</v>
+        <v>-0.8966686784000002</v>
       </c>
       <c r="P78">
-        <v>-3.304558233600001</v>
+        <v>-3.179098041600001</v>
       </c>
       <c r="Q78">
-        <v>-2.970558233600001</v>
+        <v>-2.8450980416</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.4032866083449894</v>
+        <v>0.4159777165027611</v>
       </c>
       <c r="T78">
-        <v>4.049082073930596</v>
+        <v>4.046649316384427</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.02196908846419057</v>
+        <v>0.02274643781104544</v>
       </c>
       <c r="W78">
-        <v>0.186021479374111</v>
+        <v>0.1795214793741109</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.09985949301904795</v>
+        <v>0.1033928991411156</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2399091103271218</v>
+        <v>0.238014976284987</v>
       </c>
       <c r="C79">
-        <v>-10.46285215007065</v>
+        <v>-10.07722272063346</v>
       </c>
       <c r="D79">
-        <v>13.71634784992935</v>
+        <v>14.10197727936654</v>
       </c>
       <c r="E79">
         <v>22.0112</v>
@@ -7824,37 +7824,37 @@
         <v>0.47</v>
       </c>
       <c r="M79">
-        <v>4.76854224</v>
+        <v>4.605579440000001</v>
       </c>
       <c r="N79">
-        <v>-4.298542240000001</v>
+        <v>-4.135579440000001</v>
       </c>
       <c r="O79">
-        <v>-0.9456792928000002</v>
+        <v>-0.9098274768000002</v>
       </c>
       <c r="P79">
-        <v>-3.3528629472</v>
+        <v>-3.2257519632</v>
       </c>
       <c r="Q79">
-        <v>-3.0188629472</v>
+        <v>-2.8917519632</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.4201338521860759</v>
+        <v>0.4336593563507071</v>
       </c>
       <c r="T79">
-        <v>4.22512912062323</v>
+        <v>4.222590591009836</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.02168377562699329</v>
+        <v>0.0224510295277851</v>
       </c>
       <c r="W79">
-        <v>0.1860757458757459</v>
+        <v>0.1795757458757459</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.09856261648633313</v>
+        <v>0.102050134217205</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7873,13 +7873,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2416531103271218</v>
+        <v>0.2397589762849869</v>
       </c>
       <c r="C80">
-        <v>-10.89436749750877</v>
+        <v>-10.50953953753367</v>
       </c>
       <c r="D80">
-        <v>13.61043250249123</v>
+        <v>13.99526046246633</v>
       </c>
       <c r="E80">
         <v>22.3368</v>
@@ -7906,37 +7906,37 @@
         <v>0.47</v>
       </c>
       <c r="M80">
-        <v>4.830471360000001</v>
+        <v>4.665392160000001</v>
       </c>
       <c r="N80">
-        <v>-4.360471360000001</v>
+        <v>-4.195392160000001</v>
       </c>
       <c r="O80">
-        <v>-0.9593036992000002</v>
+        <v>-0.9229862752000002</v>
       </c>
       <c r="P80">
-        <v>-3.401167660800001</v>
+        <v>-3.2724058848</v>
       </c>
       <c r="Q80">
-        <v>-3.0671676608</v>
+        <v>-2.9384058848</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.4385126636490793</v>
+        <v>0.452948418003012</v>
       </c>
       <c r="T80">
-        <v>4.417180444287922</v>
+        <v>4.414526526964829</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.0214057785035703</v>
+        <v>0.02216319581589042</v>
       </c>
       <c r="W80">
-        <v>0.186128620928621</v>
+        <v>0.1796286209286209</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.0972989931980468</v>
+        <v>0.1007417991631382</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7955,13 +7955,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2433971103271218</v>
+        <v>0.241502976284987</v>
       </c>
       <c r="C81">
-        <v>-11.32425965767824</v>
+        <v>-10.94025332477724</v>
       </c>
       <c r="D81">
-        <v>13.50614034232177</v>
+        <v>13.89014667522277</v>
       </c>
       <c r="E81">
         <v>22.66240000000001</v>
@@ -7988,37 +7988,37 @@
         <v>0.47</v>
       </c>
       <c r="M81">
-        <v>4.892400480000001</v>
+        <v>4.725204880000001</v>
       </c>
       <c r="N81">
-        <v>-4.422400480000001</v>
+        <v>-4.255204880000001</v>
       </c>
       <c r="O81">
-        <v>-0.9729281056000003</v>
+        <v>-0.9361450736000002</v>
       </c>
       <c r="P81">
-        <v>-3.449472374400001</v>
+        <v>-3.319059806400001</v>
       </c>
       <c r="Q81">
-        <v>-3.115472374400001</v>
+        <v>-2.985059806400001</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.4586418381085594</v>
+        <v>0.4740745331460128</v>
       </c>
       <c r="T81">
-        <v>4.627522370206396</v>
+        <v>4.624742075867918</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.02113481928200612</v>
+        <v>0.0218826490334108</v>
       </c>
       <c r="W81">
-        <v>0.1861801573725624</v>
+        <v>0.1796801573725625</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.09606736037275498</v>
+        <v>0.09946658651550355</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8037,13 +8037,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2451411103271218</v>
+        <v>0.243246976284987</v>
       </c>
       <c r="C82">
-        <v>-11.75256566064217</v>
+        <v>-11.36939993258668</v>
       </c>
       <c r="D82">
-        <v>13.40343433935783</v>
+        <v>13.78660006741332</v>
       </c>
       <c r="E82">
         <v>22.988</v>
@@ -8070,37 +8070,37 @@
         <v>0.47</v>
       </c>
       <c r="M82">
-        <v>4.9543296</v>
+        <v>4.785017600000001</v>
       </c>
       <c r="N82">
-        <v>-4.484329600000001</v>
+        <v>-4.315017600000001</v>
       </c>
       <c r="O82">
-        <v>-0.9865525120000002</v>
+        <v>-0.9493038720000002</v>
       </c>
       <c r="P82">
-        <v>-3.497777088</v>
+        <v>-3.365713728000001</v>
       </c>
       <c r="Q82">
-        <v>-3.163777088</v>
+        <v>-3.031713728000001</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4807839300139873</v>
+        <v>0.4973132598033133</v>
       </c>
       <c r="T82">
-        <v>4.858898488716716</v>
+        <v>4.855979179661312</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.02087063404098104</v>
+        <v>0.02160911592049316</v>
       </c>
       <c r="W82">
-        <v>0.1862304054054054</v>
+        <v>0.1797304054054054</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.09486651836809556</v>
+        <v>0.09822325418405975</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8119,13 +8119,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2468851103271218</v>
+        <v>0.244990976284987</v>
       </c>
       <c r="C83">
-        <v>-12.17932141859971</v>
+        <v>-11.79701415008688</v>
       </c>
       <c r="D83">
-        <v>13.3022785814003</v>
+        <v>13.68458584991312</v>
       </c>
       <c r="E83">
         <v>23.3136</v>
@@ -8152,37 +8152,37 @@
         <v>0.47</v>
       </c>
       <c r="M83">
-        <v>5.016258720000001</v>
+        <v>4.844830320000001</v>
       </c>
       <c r="N83">
-        <v>-4.546258720000001</v>
+        <v>-4.374830320000001</v>
       </c>
       <c r="O83">
-        <v>-1.0001769184</v>
+        <v>-0.9624626704000002</v>
       </c>
       <c r="P83">
-        <v>-3.546081801600001</v>
+        <v>-3.412367649600001</v>
       </c>
       <c r="Q83">
-        <v>-3.212081801600001</v>
+        <v>-3.078367649600001</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.5052567684357762</v>
+        <v>0.522998168214014</v>
       </c>
       <c r="T83">
-        <v>5.114629988122859</v>
+        <v>5.111557031222435</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.02061297189232695</v>
+        <v>0.02134233671159819</v>
       </c>
       <c r="W83">
-        <v>0.1862794127460794</v>
+        <v>0.1797794127460794</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.09369532678330428</v>
+        <v>0.0970106214163553</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8201,13 +8201,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2486291103271218</v>
+        <v>0.246734976284987</v>
       </c>
       <c r="C84">
-        <v>-12.60456176775264</v>
+        <v>-12.22312974427466</v>
       </c>
       <c r="D84">
-        <v>13.20263823224736</v>
+        <v>13.58407025572534</v>
       </c>
       <c r="E84">
         <v>23.63920000000001</v>
@@ -8234,37 +8234,37 @@
         <v>0.47</v>
       </c>
       <c r="M84">
-        <v>5.078187840000001</v>
+        <v>4.904643040000001</v>
       </c>
       <c r="N84">
-        <v>-4.608187840000001</v>
+        <v>-4.434643040000001</v>
       </c>
       <c r="O84">
-        <v>-1.0138013248</v>
+        <v>-0.9756214688000002</v>
       </c>
       <c r="P84">
-        <v>-3.594386515200001</v>
+        <v>-3.459021571200001</v>
       </c>
       <c r="Q84">
-        <v>-3.260386515200001</v>
+        <v>-3.125021571200001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.5324488111266527</v>
+        <v>0.5515369553370149</v>
       </c>
       <c r="T84">
-        <v>5.398776098574128</v>
+        <v>5.395532421845903</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.02036159418632297</v>
+        <v>0.02108206431267625</v>
       </c>
       <c r="W84">
-        <v>0.1863272247857614</v>
+        <v>0.1798272247857614</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.09255270084692258</v>
+        <v>0.09582756505761925</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8283,13 +8283,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2503731103271218</v>
+        <v>0.2484789762849869</v>
       </c>
       <c r="C85">
-        <v>-13.02832050830449</v>
+        <v>-12.64777949728371</v>
       </c>
       <c r="D85">
-        <v>13.10447949169551</v>
+        <v>13.48502050271629</v>
       </c>
       <c r="E85">
         <v>23.9648</v>
@@ -8316,37 +8316,37 @@
         <v>0.47</v>
       </c>
       <c r="M85">
-        <v>5.14011696</v>
+        <v>4.964455760000001</v>
       </c>
       <c r="N85">
-        <v>-4.670116960000001</v>
+        <v>-4.494455760000001</v>
       </c>
       <c r="O85">
-        <v>-1.0274257312</v>
+        <v>-0.9887802672000002</v>
       </c>
       <c r="P85">
-        <v>-3.6426912288</v>
+        <v>-3.505675492800001</v>
       </c>
       <c r="Q85">
-        <v>-3.3086912288</v>
+        <v>-3.171675492800001</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.5628399176635146</v>
+        <v>0.5834332468274275</v>
       </c>
       <c r="T85">
-        <v>5.716351163196137</v>
+        <v>5.712916681954486</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.02011627377443956</v>
+        <v>0.02082806353782473</v>
       </c>
       <c r="W85">
-        <v>0.1863738847281016</v>
+        <v>0.1798738847281016</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.09143760806563428</v>
+        <v>0.09467301608102152</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8365,13 +8365,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2521171103271218</v>
+        <v>0.250222976284987</v>
       </c>
       <c r="C86">
-        <v>-13.45063044268834</v>
+        <v>-13.07099524203077</v>
       </c>
       <c r="D86">
-        <v>13.00776955731166</v>
+        <v>13.38740475796923</v>
       </c>
       <c r="E86">
         <v>24.2904</v>
@@ -8398,37 +8398,37 @@
         <v>0.47</v>
       </c>
       <c r="M86">
-        <v>5.202046080000001</v>
+        <v>5.02426848</v>
       </c>
       <c r="N86">
-        <v>-4.732046080000001</v>
+        <v>-4.55426848</v>
       </c>
       <c r="O86">
-        <v>-1.0410501376</v>
+        <v>-1.0019390656</v>
       </c>
       <c r="P86">
-        <v>-3.690995942400001</v>
+        <v>-3.5523294144</v>
       </c>
       <c r="Q86">
-        <v>-3.356995942400001</v>
+        <v>-3.2183294144</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.5970299125174841</v>
+        <v>0.6193165747541414</v>
       </c>
       <c r="T86">
-        <v>6.073623110895893</v>
+        <v>6.069973974576638</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.01987679432474385</v>
+        <v>0.02058011040046968</v>
       </c>
       <c r="W86">
-        <v>0.1864194337194337</v>
+        <v>0.1799194337194337</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.09034906511247198</v>
+        <v>0.09354595636577123</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8447,13 +8447,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2538611103271218</v>
+        <v>0.251966976284987</v>
       </c>
       <c r="C87">
-        <v>-13.87152341211446</v>
+        <v>-13.49280789632486</v>
       </c>
       <c r="D87">
-        <v>12.91247658788554</v>
+        <v>13.29119210367515</v>
       </c>
       <c r="E87">
         <v>24.616</v>
@@ -8480,37 +8480,37 @@
         <v>0.47</v>
       </c>
       <c r="M87">
-        <v>5.263975200000001</v>
+        <v>5.084081200000001</v>
       </c>
       <c r="N87">
-        <v>-4.793975200000001</v>
+        <v>-4.614081200000001</v>
       </c>
       <c r="O87">
-        <v>-1.054674544</v>
+        <v>-1.015097864</v>
       </c>
       <c r="P87">
-        <v>-3.739300656000001</v>
+        <v>-3.598983336000001</v>
       </c>
       <c r="Q87">
-        <v>-3.405300656000001</v>
+        <v>-3.264983336000001</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.635778573351983</v>
+        <v>0.6599843464044175</v>
       </c>
       <c r="T87">
-        <v>6.478531318288952</v>
+        <v>6.474638906215081</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.01964294968562921</v>
+        <v>0.0203379914545818</v>
       </c>
       <c r="W87">
-        <v>0.1864639109697933</v>
+        <v>0.1799639109697933</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.08928613493467819</v>
+        <v>0.09244541570264453</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2556051103271218</v>
+        <v>0.253710976284987</v>
       </c>
       <c r="C88">
-        <v>-14.29103033152311</v>
+        <v>-13.9132474955161</v>
       </c>
       <c r="D88">
-        <v>12.81856966847689</v>
+        <v>13.1963525044839</v>
       </c>
       <c r="E88">
         <v>24.9416</v>
@@ -8562,37 +8562,37 @@
         <v>0.47</v>
       </c>
       <c r="M88">
-        <v>5.32590432</v>
+        <v>5.14389392</v>
       </c>
       <c r="N88">
-        <v>-4.85590432</v>
+        <v>-4.67389392</v>
       </c>
       <c r="O88">
-        <v>-1.0682989504</v>
+        <v>-1.0282566624</v>
       </c>
       <c r="P88">
-        <v>-3.7876053696</v>
+        <v>-3.6456372576</v>
       </c>
       <c r="Q88">
-        <v>-3.4536053696</v>
+        <v>-3.3116372576</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6800627571628389</v>
+        <v>0.7064617997190189</v>
       </c>
       <c r="T88">
-        <v>6.941283555309592</v>
+        <v>6.937113113801874</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.01941454329393585</v>
+        <v>0.0201015031818541</v>
       </c>
       <c r="W88">
-        <v>0.1865073538654934</v>
+        <v>0.1800073538654934</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.0882479240633447</v>
+        <v>0.09137046900842771</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2573491103271218</v>
+        <v>0.2554549762849869</v>
       </c>
       <c r="C89">
-        <v>-14.70918122302318</v>
+        <v>-14.33234322375673</v>
       </c>
       <c r="D89">
-        <v>12.72601877697682</v>
+        <v>13.10285677624327</v>
       </c>
       <c r="E89">
         <v>25.2672</v>
@@ -8644,37 +8644,37 @@
         <v>0.47</v>
       </c>
       <c r="M89">
-        <v>5.387833440000001</v>
+        <v>5.20370664</v>
       </c>
       <c r="N89">
-        <v>-4.917833440000001</v>
+        <v>-4.73370664</v>
       </c>
       <c r="O89">
-        <v>-1.0819233568</v>
+        <v>-1.0414154608</v>
       </c>
       <c r="P89">
-        <v>-3.835910083200001</v>
+        <v>-3.6922911792</v>
       </c>
       <c r="Q89">
-        <v>-3.501910083200001</v>
+        <v>-3.3582911792</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.7311598923292111</v>
+        <v>0.7600896304666356</v>
       </c>
       <c r="T89">
-        <v>7.47522844417956</v>
+        <v>7.47073719947894</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.01919138762389061</v>
+        <v>0.01987045142114314</v>
       </c>
       <c r="W89">
-        <v>0.186549798073936</v>
+        <v>0.180049798073936</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.08723358010859361</v>
+        <v>0.09032023373246878</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2590931103271218</v>
+        <v>0.257198976284987</v>
       </c>
       <c r="C90">
-        <v>-15.12600524789264</v>
+        <v>-14.75012344394247</v>
       </c>
       <c r="D90">
-        <v>12.63479475210736</v>
+        <v>13.01067655605754</v>
       </c>
       <c r="E90">
         <v>25.5928</v>
@@ -8726,37 +8726,37 @@
         <v>0.47</v>
       </c>
       <c r="M90">
-        <v>5.449762560000001</v>
+        <v>5.263519360000001</v>
       </c>
       <c r="N90">
-        <v>-4.979762560000001</v>
+        <v>-4.793519360000001</v>
       </c>
       <c r="O90">
-        <v>-1.0955477632</v>
+        <v>-1.0545742592</v>
       </c>
       <c r="P90">
-        <v>-3.884214796800001</v>
+        <v>-3.738945100800001</v>
       </c>
       <c r="Q90">
-        <v>-3.550214796800001</v>
+        <v>-3.404945100800001</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.7907732166899789</v>
+        <v>0.8226554330055221</v>
       </c>
       <c r="T90">
-        <v>8.098164147861192</v>
+        <v>8.093298632768853</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.01897330367361913</v>
+        <v>0.01964465083681196</v>
       </c>
       <c r="W90">
-        <v>0.1865912776412776</v>
+        <v>0.1800912776412776</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.08624228942554146</v>
+        <v>0.0892938674400543</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2608371103271218</v>
+        <v>0.258942976284987</v>
       </c>
       <c r="C91">
-        <v>-15.54153073721243</v>
+        <v>-15.16661572639892</v>
       </c>
       <c r="D91">
-        <v>12.54486926278757</v>
+        <v>12.91978427360108</v>
       </c>
       <c r="E91">
         <v>25.91840000000001</v>
@@ -8808,37 +8808,37 @@
         <v>0.47</v>
       </c>
       <c r="M91">
-        <v>5.511691680000001</v>
+        <v>5.323332080000001</v>
       </c>
       <c r="N91">
-        <v>-5.041691680000001</v>
+        <v>-4.853332080000001</v>
       </c>
       <c r="O91">
-        <v>-1.1091721696</v>
+        <v>-1.0677330576</v>
       </c>
       <c r="P91">
-        <v>-3.932519510400001</v>
+        <v>-3.785599022400001</v>
       </c>
       <c r="Q91">
-        <v>-3.598519510400001</v>
+        <v>-3.451599022400001</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.8612253272981586</v>
+        <v>0.896596836006024</v>
       </c>
       <c r="T91">
-        <v>8.834360888575844</v>
+        <v>8.829053053929657</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.01876012048627509</v>
+        <v>0.0194239244229152</v>
       </c>
       <c r="W91">
-        <v>0.1866318250835105</v>
+        <v>0.1801318250835105</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.08527327493761405</v>
+        <v>0.0882905655587054</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8857,13 +8857,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2625811103271218</v>
+        <v>0.2606869762849869</v>
       </c>
       <c r="C92">
-        <v>-15.95578522120151</v>
+        <v>-15.58184687637391</v>
       </c>
       <c r="D92">
-        <v>12.4562147787985</v>
+        <v>12.83015312362609</v>
       </c>
       <c r="E92">
         <v>26.244</v>
@@ -8890,37 +8890,37 @@
         <v>0.47</v>
       </c>
       <c r="M92">
-        <v>5.5736208</v>
+        <v>5.3831448</v>
       </c>
       <c r="N92">
-        <v>-5.103620800000001</v>
+        <v>-4.9131448</v>
       </c>
       <c r="O92">
-        <v>-1.122796576</v>
+        <v>-1.080891856</v>
       </c>
       <c r="P92">
-        <v>-3.980824224</v>
+        <v>-3.832252944</v>
       </c>
       <c r="Q92">
-        <v>-3.646824224</v>
+        <v>-3.498252944</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.9457678600279747</v>
+        <v>0.9853265196066265</v>
       </c>
       <c r="T92">
-        <v>9.717796977433432</v>
+        <v>9.711958359322624</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.01855167470309426</v>
+        <v>0.01920810304043837</v>
       </c>
       <c r="W92">
-        <v>0.1866714714714715</v>
+        <v>0.1801714714714715</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.08432579410497387</v>
+        <v>0.08730955927471984</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2643251103271218</v>
+        <v>0.262430976284987</v>
       </c>
       <c r="C93">
-        <v>-16.36879545731661</v>
+        <v>-15.99584296039333</v>
       </c>
       <c r="D93">
-        <v>12.3688045426834</v>
+        <v>12.74175703960668</v>
       </c>
       <c r="E93">
         <v>26.5696</v>
@@ -8972,37 +8972,37 @@
         <v>0.47</v>
       </c>
       <c r="M93">
-        <v>5.635549920000001</v>
+        <v>5.442957520000001</v>
       </c>
       <c r="N93">
-        <v>-5.165549920000001</v>
+        <v>-4.972957520000001</v>
       </c>
       <c r="O93">
-        <v>-1.1364209824</v>
+        <v>-1.0940506544</v>
       </c>
       <c r="P93">
-        <v>-4.029128937600001</v>
+        <v>-3.878906865600001</v>
       </c>
       <c r="Q93">
-        <v>-3.695128937600001</v>
+        <v>-3.544906865600001</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>1.049097622253305</v>
+        <v>1.09377391067403</v>
       </c>
       <c r="T93">
-        <v>10.79755219714826</v>
+        <v>10.7910648436918</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.0183478101459174</v>
+        <v>0.01899702498504893</v>
       </c>
       <c r="W93">
-        <v>0.1867102465102465</v>
+        <v>0.1802102465102465</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.08339913702689727</v>
+        <v>0.08635011356840416</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2660691103271218</v>
+        <v>0.264174976284987</v>
       </c>
       <c r="C94">
-        <v>-16.78058745717725</v>
+        <v>-16.40862933153487</v>
       </c>
       <c r="D94">
-        <v>12.28261254282275</v>
+        <v>12.65457066846514</v>
       </c>
       <c r="E94">
         <v>26.89520000000001</v>
@@ -9054,37 +9054,37 @@
         <v>0.47</v>
       </c>
       <c r="M94">
-        <v>5.697479040000001</v>
+        <v>5.502770240000001</v>
       </c>
       <c r="N94">
-        <v>-5.227479040000001</v>
+        <v>-5.032770240000001</v>
       </c>
       <c r="O94">
-        <v>-1.1500453888</v>
+        <v>-1.1072094528</v>
       </c>
       <c r="P94">
-        <v>-4.077433651200001</v>
+        <v>-3.925560787200001</v>
       </c>
       <c r="Q94">
-        <v>-3.743433651200001</v>
+        <v>-3.591560787200001</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.178259825034969</v>
+        <v>1.229333149508284</v>
       </c>
       <c r="T94">
-        <v>12.14724622179179</v>
+        <v>12.13994794915329</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.01814837742694003</v>
+        <v>0.01879053558303753</v>
       </c>
       <c r="W94">
-        <v>0.186748178613396</v>
+        <v>0.180248178613396</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.08249262466790919</v>
+        <v>0.08541152537744323</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9103,13 +9103,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2678131103271217</v>
+        <v>0.265918976284987</v>
       </c>
       <c r="C95">
-        <v>-17.19118651237275</v>
+        <v>-16.82023065367128</v>
       </c>
       <c r="D95">
-        <v>12.19761348762726</v>
+        <v>12.56856934632872</v>
       </c>
       <c r="E95">
         <v>27.2208</v>
@@ -9136,37 +9136,37 @@
         <v>0.47</v>
       </c>
       <c r="M95">
-        <v>5.75940816</v>
+        <v>5.56258296</v>
       </c>
       <c r="N95">
-        <v>-5.289408160000001</v>
+        <v>-5.092582960000001</v>
       </c>
       <c r="O95">
-        <v>-1.1636697952</v>
+        <v>-1.1203682512</v>
       </c>
       <c r="P95">
-        <v>-4.1257383648</v>
+        <v>-3.9722147088</v>
       </c>
       <c r="Q95">
-        <v>-3.7917383648</v>
+        <v>-3.6382147088</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.344325514325679</v>
+        <v>1.403623599438039</v>
       </c>
       <c r="T95">
-        <v>13.88256711061919</v>
+        <v>13.87422622760376</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.0179532335836396</v>
+        <v>0.01858848681332745</v>
       </c>
       <c r="W95">
-        <v>0.1867852949723917</v>
+        <v>0.1802852949723917</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.08160560719836185</v>
+        <v>0.08449312187876112</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9185,13 +9185,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2695571103271218</v>
+        <v>0.267662976284987</v>
       </c>
       <c r="C96">
-        <v>-17.60061721920496</v>
+        <v>-17.23067092473172</v>
       </c>
       <c r="D96">
-        <v>12.11378278079505</v>
+        <v>12.48372907526829</v>
       </c>
       <c r="E96">
         <v>27.54640000000001</v>
@@ -9218,37 +9218,37 @@
         <v>0.47</v>
       </c>
       <c r="M96">
-        <v>5.821337280000001</v>
+        <v>5.622395680000001</v>
       </c>
       <c r="N96">
-        <v>-5.351337280000001</v>
+        <v>-5.152395680000001</v>
       </c>
       <c r="O96">
-        <v>-1.1772942016</v>
+        <v>-1.1335270496</v>
       </c>
       <c r="P96">
-        <v>-4.1740430784</v>
+        <v>-4.018868630400001</v>
       </c>
       <c r="Q96">
-        <v>-3.8400430784</v>
+        <v>-3.684868630400001</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.565746433379959</v>
+        <v>1.636010866011046</v>
       </c>
       <c r="T96">
-        <v>16.1963282957224</v>
+        <v>16.18659726553772</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.01776224173700514</v>
+        <v>0.0183907369536112</v>
       </c>
       <c r="W96">
-        <v>0.1868216216216216</v>
+        <v>0.1803216216216216</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.08073746244093238</v>
+        <v>0.0835942588800509</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9267,13 +9267,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2713011103271218</v>
+        <v>0.269406976284987</v>
       </c>
       <c r="C97">
-        <v>-18.00890350241781</v>
+        <v>-17.6399734990272</v>
       </c>
       <c r="D97">
-        <v>12.0310964975822</v>
+        <v>12.40002650097281</v>
       </c>
       <c r="E97">
         <v>27.87200000000001</v>
@@ -9300,37 +9300,37 @@
         <v>0.47</v>
       </c>
       <c r="M97">
-        <v>5.883266400000001</v>
+        <v>5.682208400000001</v>
       </c>
       <c r="N97">
-        <v>-5.413266400000001</v>
+        <v>-5.212208400000002</v>
       </c>
       <c r="O97">
-        <v>-1.190918608</v>
+        <v>-1.146685848</v>
       </c>
       <c r="P97">
-        <v>-4.222347792000001</v>
+        <v>-4.065522552000001</v>
       </c>
       <c r="Q97">
-        <v>-3.888347792000001</v>
+        <v>-3.731522552000001</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.875735720055952</v>
+        <v>1.961353039213256</v>
       </c>
       <c r="T97">
-        <v>19.43559395486689</v>
+        <v>19.42391671864527</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.01757527077135245</v>
+        <v>0.01819715024883635</v>
       </c>
       <c r="W97">
-        <v>0.1868571834992888</v>
+        <v>0.1803571834992888</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.07988759441523841</v>
+        <v>0.08271431931289241</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9349,13 +9349,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2730451103271218</v>
+        <v>0.271150976284987</v>
       </c>
       <c r="C98">
-        <v>-18.41606863796149</v>
+        <v>-18.04816110868407</v>
       </c>
       <c r="D98">
-        <v>11.94953136203851</v>
+        <v>12.31743889131593</v>
       </c>
       <c r="E98">
         <v>28.1976</v>
@@ -9382,37 +9382,37 @@
         <v>0.47</v>
       </c>
       <c r="M98">
-        <v>5.94519552</v>
+        <v>5.74202112</v>
       </c>
       <c r="N98">
-        <v>-5.475195520000001</v>
+        <v>-5.272021120000001</v>
       </c>
       <c r="O98">
-        <v>-1.2045430144</v>
+        <v>-1.1598446464</v>
       </c>
       <c r="P98">
-        <v>-4.2706525056</v>
+        <v>-4.112176473600001</v>
       </c>
       <c r="Q98">
-        <v>-3.9366525056</v>
+        <v>-3.778176473600001</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.340719650069934</v>
+        <v>2.449366299016564</v>
       </c>
       <c r="T98">
-        <v>24.29449244358355</v>
+        <v>24.27989589830654</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.01739219503415087</v>
+        <v>0.01800759660041097</v>
       </c>
       <c r="W98">
-        <v>0.1868920045045045</v>
+        <v>0.1803920045045045</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.07905543197341303</v>
+        <v>0.08185271182004983</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9431,13 +9431,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2747891103271218</v>
+        <v>0.272894976284987</v>
       </c>
       <c r="C99">
-        <v>-18.82213527483697</v>
+        <v>-18.4552558842265</v>
       </c>
       <c r="D99">
-        <v>11.86906472516303</v>
+        <v>12.23594411577351</v>
       </c>
       <c r="E99">
         <v>28.5232</v>
@@ -9464,37 +9464,37 @@
         <v>0.47</v>
       </c>
       <c r="M99">
-        <v>6.007124640000001</v>
+        <v>5.80183384</v>
       </c>
       <c r="N99">
-        <v>-5.537124640000001</v>
+        <v>-5.331833840000001</v>
       </c>
       <c r="O99">
-        <v>-1.2181674208</v>
+        <v>-1.1730034448</v>
       </c>
       <c r="P99">
-        <v>-4.318957219200001</v>
+        <v>-4.158830395200001</v>
       </c>
       <c r="Q99">
-        <v>-3.9849572192</v>
+        <v>-3.824830395200001</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>3.115692866759913</v>
+        <v>3.262721732022086</v>
       </c>
       <c r="T99">
-        <v>32.39265659144474</v>
+        <v>32.37319453107538</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.01721289405441736</v>
+        <v>0.01782195127463354</v>
       </c>
       <c r="W99">
-        <v>0.1869261075508498</v>
+        <v>0.1804261075508498</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.07824042752007887</v>
+        <v>0.0810088694301524</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9513,13 +9513,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2765331103271218</v>
+        <v>0.274638976284987</v>
       </c>
       <c r="C100">
-        <v>-19.22712545606372</v>
+        <v>-18.86127937434726</v>
       </c>
       <c r="D100">
-        <v>11.78967454393628</v>
+        <v>12.15552062565274</v>
       </c>
       <c r="E100">
         <v>28.8488</v>
@@ -9546,37 +9546,37 @@
         <v>0.47</v>
       </c>
       <c r="M100">
-        <v>6.069053760000001</v>
+        <v>5.861646560000001</v>
       </c>
       <c r="N100">
-        <v>-5.599053760000001</v>
+        <v>-5.391646560000001</v>
       </c>
       <c r="O100">
-        <v>-1.2317918272</v>
+        <v>-1.1861622432</v>
       </c>
       <c r="P100">
-        <v>-4.367261932800001</v>
+        <v>-4.205484316800001</v>
       </c>
       <c r="Q100">
-        <v>-4.0332619328</v>
+        <v>-3.871484316800001</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.665639300139868</v>
+        <v>4.889432598033128</v>
       </c>
       <c r="T100">
-        <v>48.58898488716711</v>
+        <v>48.55979179661308</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.01703725227835187</v>
+        <v>0.01764009462897401</v>
       </c>
       <c r="W100">
-        <v>0.1869595146166575</v>
+        <v>0.1804595146166575</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.0774420558106903</v>
+        <v>0.08018224831351817</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9595,13 +9595,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2782771103271218</v>
+        <v>0.276382976284987</v>
       </c>
       <c r="C101">
-        <v>-19.63106063881166</v>
+        <v>-19.26625256490403</v>
       </c>
       <c r="D101">
-        <v>11.71133936118834</v>
+        <v>12.07614743509597</v>
       </c>
       <c r="E101">
         <v>29.1744</v>
@@ -9628,37 +9628,37 @@
         <v>0.47</v>
       </c>
       <c r="M101">
-        <v>6.13098288</v>
+        <v>5.921459280000001</v>
       </c>
       <c r="N101">
-        <v>-5.660982880000001</v>
+        <v>-5.451459280000001</v>
       </c>
       <c r="O101">
-        <v>-1.2454162336</v>
+        <v>-1.1993210416</v>
       </c>
       <c r="P101">
-        <v>-4.4155666464</v>
+        <v>-4.252138238400001</v>
       </c>
       <c r="Q101">
-        <v>-4.081566646400001</v>
+        <v>-3.918138238400001</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>9.315478600279738</v>
+        <v>9.769565196066257</v>
       </c>
       <c r="T101">
-        <v>97.17796977433422</v>
+        <v>97.11958359322615</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.01686515882099478</v>
+        <v>0.01746191185494397</v>
       </c>
       <c r="W101">
-        <v>0.1869922467922468</v>
+        <v>0.1804922467922468</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.07665981282270351</v>
+        <v>0.07937232661338167</v>
       </c>
       <c r="Z101">
         <v>0</v>
